--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4227,28 +4227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>26960.33886662486</v>
+        <v>27391.6659824893</v>
       </c>
       <c r="AB2" t="n">
-        <v>36888.32504352521</v>
+        <v>37478.48583226034</v>
       </c>
       <c r="AC2" t="n">
-        <v>33367.75507445897</v>
+        <v>33901.59174581306</v>
       </c>
       <c r="AD2" t="n">
-        <v>26960338.86662487</v>
+        <v>27391665.9824893</v>
       </c>
       <c r="AE2" t="n">
-        <v>36888325.04352521</v>
+        <v>37478485.83226034</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.129220969990696e-07</v>
+        <v>4.511286516662541e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>98</v>
+        <v>97.10625</v>
       </c>
       <c r="AH2" t="n">
-        <v>33367755.07445897</v>
+        <v>33901591.74581306</v>
       </c>
     </row>
     <row r="3">
@@ -4333,28 +4333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>8892.719032739111</v>
+        <v>9117.01600322109</v>
       </c>
       <c r="AB3" t="n">
-        <v>12167.41049966958</v>
+        <v>12474.303509967</v>
       </c>
       <c r="AC3" t="n">
-        <v>11006.16991864855</v>
+        <v>11283.77349077022</v>
       </c>
       <c r="AD3" t="n">
-        <v>8892719.03273911</v>
+        <v>9117016.003221089</v>
       </c>
       <c r="AE3" t="n">
-        <v>12167410.49966958</v>
+        <v>12474303.509967</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.912695846793608e-07</v>
+        <v>8.52412319442111e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.40833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>11006169.91864855</v>
+        <v>11283773.49077022</v>
       </c>
     </row>
     <row r="4">
@@ -4439,28 +4439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>6783.623667952237</v>
+        <v>6982.020445539212</v>
       </c>
       <c r="AB4" t="n">
-        <v>9281.653174847426</v>
+        <v>9553.10839859004</v>
       </c>
       <c r="AC4" t="n">
-        <v>8395.825222721685</v>
+        <v>8641.373140900094</v>
       </c>
       <c r="AD4" t="n">
-        <v>6783623.667952237</v>
+        <v>6982020.445539212</v>
       </c>
       <c r="AE4" t="n">
-        <v>9281653.174847426</v>
+        <v>9553108.398590041</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.93972221643158e-07</v>
+        <v>1.000475056399241e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.79583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>8395825.222721685</v>
+        <v>8641373.140900094</v>
       </c>
     </row>
     <row r="5">
@@ -4545,28 +4545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5948.345970173005</v>
+        <v>6129.561353023588</v>
       </c>
       <c r="AB5" t="n">
-        <v>8138.789378894524</v>
+        <v>8386.736260369162</v>
       </c>
       <c r="AC5" t="n">
-        <v>7362.034743435159</v>
+        <v>7586.317922537482</v>
       </c>
       <c r="AD5" t="n">
-        <v>5948345.970173005</v>
+        <v>6129561.353023588</v>
       </c>
       <c r="AE5" t="n">
-        <v>8138789.378894524</v>
+        <v>8386736.260369162</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.485329975301754e-07</v>
+        <v>1.079133385407716e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.60416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>7362034.743435158</v>
+        <v>7586317.922537481</v>
       </c>
     </row>
     <row r="6">
@@ -4651,28 +4651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>5477.646884073544</v>
+        <v>5650.228899128643</v>
       </c>
       <c r="AB6" t="n">
-        <v>7494.758123515101</v>
+        <v>7730.892450294651</v>
       </c>
       <c r="AC6" t="n">
-        <v>6779.46892716563</v>
+        <v>6993.066925213939</v>
       </c>
       <c r="AD6" t="n">
-        <v>5477646.884073544</v>
+        <v>5650228.899128643</v>
       </c>
       <c r="AE6" t="n">
-        <v>7494758.123515101</v>
+        <v>7730892.450294651</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.82524069138932e-07</v>
+        <v>1.12813710374722e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.83541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>6779468.927165629</v>
+        <v>6993066.925213939</v>
       </c>
     </row>
     <row r="7">
@@ -4757,28 +4757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>5159.508868709996</v>
+        <v>5332.005542910524</v>
       </c>
       <c r="AB7" t="n">
-        <v>7059.46765563599</v>
+        <v>7295.485215293343</v>
       </c>
       <c r="AC7" t="n">
-        <v>6385.721970606908</v>
+        <v>6599.21434562328</v>
       </c>
       <c r="AD7" t="n">
-        <v>5159508.868709996</v>
+        <v>5332005.542910524</v>
       </c>
       <c r="AE7" t="n">
-        <v>7059467.65563599</v>
+        <v>7295485.215293342</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.063032308223112e-07</v>
+        <v>1.162418674946101e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.69375</v>
       </c>
       <c r="AH7" t="n">
-        <v>6385721.970606908</v>
+        <v>6599214.34562328</v>
       </c>
     </row>
     <row r="8">
@@ -4863,28 +4863,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4925.235743074905</v>
+        <v>5089.18439033452</v>
       </c>
       <c r="AB8" t="n">
-        <v>6738.924829741172</v>
+        <v>6963.246601825635</v>
       </c>
       <c r="AC8" t="n">
-        <v>6095.771302130822</v>
+        <v>6298.68411912512</v>
       </c>
       <c r="AD8" t="n">
-        <v>4925235.743074905</v>
+        <v>5089184.39033452</v>
       </c>
       <c r="AE8" t="n">
-        <v>6738924.829741172</v>
+        <v>6963246.601825636</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.233717088404423e-07</v>
+        <v>1.187025692309715e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.91458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>6095771.302130822</v>
+        <v>6298684.119125119</v>
       </c>
     </row>
     <row r="9">
@@ -4969,28 +4969,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4741.329268483523</v>
+        <v>4905.107323542547</v>
       </c>
       <c r="AB9" t="n">
-        <v>6487.295877824186</v>
+        <v>6711.384238133801</v>
       </c>
       <c r="AC9" t="n">
-        <v>5868.15746422135</v>
+        <v>6070.859145932995</v>
       </c>
       <c r="AD9" t="n">
-        <v>4741329.268483523</v>
+        <v>4905107.323542546</v>
       </c>
       <c r="AE9" t="n">
-        <v>6487295.877824186</v>
+        <v>6711384.238133801</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.360636540334116e-07</v>
+        <v>1.205323218041633e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.35416666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>5868157.46422135</v>
+        <v>6070859.145932996</v>
       </c>
     </row>
     <row r="10">
@@ -5075,28 +5075,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4576.680252515451</v>
+        <v>4740.543558920494</v>
       </c>
       <c r="AB10" t="n">
-        <v>6262.015830374725</v>
+        <v>6486.220835336989</v>
       </c>
       <c r="AC10" t="n">
-        <v>5664.377828317942</v>
+        <v>5867.1850222803</v>
       </c>
       <c r="AD10" t="n">
-        <v>4576680.252515451</v>
+        <v>4740543.558920494</v>
       </c>
       <c r="AE10" t="n">
-        <v>6262015.830374725</v>
+        <v>6486220.835336989</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.464214483862946e-07</v>
+        <v>1.22025568156998e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.90625</v>
       </c>
       <c r="AH10" t="n">
-        <v>5664377.828317942</v>
+        <v>5867185.0222803</v>
       </c>
     </row>
     <row r="11">
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>4429.490669066725</v>
+        <v>4584.891289385428</v>
       </c>
       <c r="AB11" t="n">
-        <v>6060.624548754035</v>
+        <v>6273.250533265609</v>
       </c>
       <c r="AC11" t="n">
-        <v>5482.2070479607</v>
+        <v>5674.540306932923</v>
       </c>
       <c r="AD11" t="n">
-        <v>4429490.669066725</v>
+        <v>4584891.289385428</v>
       </c>
       <c r="AE11" t="n">
-        <v>6060624.548754035</v>
+        <v>6273250.533265609</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.547368607541019e-07</v>
+        <v>1.232243715670202e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.55416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>5482207.0479607</v>
+        <v>5674540.306932923</v>
       </c>
     </row>
     <row r="12">
@@ -5287,28 +5287,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>4294.78683473783</v>
+        <v>4450.01686285594</v>
       </c>
       <c r="AB12" t="n">
-        <v>5876.316819911475</v>
+        <v>6088.709392648202</v>
       </c>
       <c r="AC12" t="n">
-        <v>5315.489390081359</v>
+        <v>5507.611513770931</v>
       </c>
       <c r="AD12" t="n">
-        <v>4294786.83473783</v>
+        <v>4450016.86285594</v>
       </c>
       <c r="AE12" t="n">
-        <v>5876316.819911475</v>
+        <v>6088709.392648202</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.62176966556877e-07</v>
+        <v>1.242969851444085e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.25208333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>5315489.390081358</v>
+        <v>5507611.513770931</v>
       </c>
     </row>
     <row r="13">
@@ -5393,28 +5393,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>4198.086813196102</v>
+        <v>4353.316841314211</v>
       </c>
       <c r="AB13" t="n">
-        <v>5744.007584334212</v>
+        <v>5956.400157070938</v>
       </c>
       <c r="AC13" t="n">
-        <v>5195.807562250416</v>
+        <v>5387.929685939988</v>
       </c>
       <c r="AD13" t="n">
-        <v>4198086.813196101</v>
+        <v>4353316.841314211</v>
       </c>
       <c r="AE13" t="n">
-        <v>5744007.584334212</v>
+        <v>5956400.157070938</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.668452682370496e-07</v>
+        <v>1.249699975851227e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.0625</v>
       </c>
       <c r="AH13" t="n">
-        <v>5195807.562250416</v>
+        <v>5387929.685939988</v>
       </c>
     </row>
     <row r="14">
@@ -5499,28 +5499,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>4160.321737517408</v>
+        <v>4324.09970306788</v>
       </c>
       <c r="AB14" t="n">
-        <v>5692.335741713069</v>
+        <v>5916.423979553135</v>
       </c>
       <c r="AC14" t="n">
-        <v>5149.06720776715</v>
+        <v>5351.768778697569</v>
       </c>
       <c r="AD14" t="n">
-        <v>4160321.737517408</v>
+        <v>4324099.70306788</v>
       </c>
       <c r="AE14" t="n">
-        <v>5692335.741713069</v>
+        <v>5916423.979553135</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.68449996939609e-07</v>
+        <v>1.252013456116182e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>35</v>
+        <v>34.99791666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>5149067.207767149</v>
+        <v>5351768.778697569</v>
       </c>
     </row>
     <row r="15">
@@ -5605,28 +5605,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>4170.266484288722</v>
+        <v>4334.044449839193</v>
       </c>
       <c r="AB15" t="n">
-        <v>5705.942582976843</v>
+        <v>5930.03082081691</v>
       </c>
       <c r="AC15" t="n">
-        <v>5161.37543119803</v>
+        <v>5364.07700212845</v>
       </c>
       <c r="AD15" t="n">
-        <v>4170266.484288721</v>
+        <v>4334044.449839193</v>
       </c>
       <c r="AE15" t="n">
-        <v>5705942.582976843</v>
+        <v>5930030.82081691</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.688876502221251e-07</v>
+        <v>1.252644405279352e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>35</v>
+        <v>34.98125</v>
       </c>
       <c r="AH15" t="n">
-        <v>5161375.43119803</v>
+        <v>5364077.00212845</v>
       </c>
     </row>
   </sheetData>
@@ -5902,28 +5902,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>16159.29288746114</v>
+        <v>16487.3164730511</v>
       </c>
       <c r="AB2" t="n">
-        <v>22109.857426314</v>
+        <v>22558.67376749746</v>
       </c>
       <c r="AC2" t="n">
-        <v>19999.72366492555</v>
+        <v>20405.70560442413</v>
       </c>
       <c r="AD2" t="n">
-        <v>16159292.88746114</v>
+        <v>16487316.4730511</v>
       </c>
       <c r="AE2" t="n">
-        <v>22109857.426314</v>
+        <v>22558673.76749746</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.119990398454486e-07</v>
+        <v>6.031510953612769e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.32708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>19999723.66492555</v>
+        <v>20405705.60442413</v>
       </c>
     </row>
     <row r="3">
@@ -6008,28 +6008,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6941.350219267005</v>
+        <v>7143.197792386485</v>
       </c>
       <c r="AB3" t="n">
-        <v>9497.461600760649</v>
+        <v>9773.63835518919</v>
       </c>
       <c r="AC3" t="n">
-        <v>8591.037195354773</v>
+        <v>8840.856027957148</v>
       </c>
       <c r="AD3" t="n">
-        <v>6941350.219267005</v>
+        <v>7143197.792386485</v>
       </c>
       <c r="AE3" t="n">
-        <v>9497461.60076065</v>
+        <v>9773638.355189191</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.679515569069434e-07</v>
+        <v>9.778559516736305e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.06875</v>
       </c>
       <c r="AH3" t="n">
-        <v>8591037.195354773</v>
+        <v>8840856.027957149</v>
       </c>
     </row>
     <row r="4">
@@ -6114,28 +6114,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5513.829171072812</v>
+        <v>5690.424473527285</v>
       </c>
       <c r="AB4" t="n">
-        <v>7544.264324837348</v>
+        <v>7785.889808490467</v>
       </c>
       <c r="AC4" t="n">
-        <v>6824.250326116069</v>
+        <v>7042.815412732819</v>
       </c>
       <c r="AD4" t="n">
-        <v>5513829.171072812</v>
+        <v>5690424.473527285</v>
       </c>
       <c r="AE4" t="n">
-        <v>7544264.324837347</v>
+        <v>7785889.808490466</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.609154428207882e-07</v>
+        <v>1.113951583447457e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.32083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>6824250.326116069</v>
+        <v>7042815.412732819</v>
       </c>
     </row>
     <row r="5">
@@ -6220,28 +6220,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4898.391755185757</v>
+        <v>5066.654885431245</v>
       </c>
       <c r="AB5" t="n">
-        <v>6702.195701238074</v>
+        <v>6932.420739285367</v>
       </c>
       <c r="AC5" t="n">
-        <v>6062.547550102406</v>
+        <v>6270.800233641326</v>
       </c>
       <c r="AD5" t="n">
-        <v>4898391.755185757</v>
+        <v>5066654.885431245</v>
       </c>
       <c r="AE5" t="n">
-        <v>6702195.701238074</v>
+        <v>6932420.739285367</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.093592859674509e-07</v>
+        <v>1.184871547407519e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.84375</v>
       </c>
       <c r="AH5" t="n">
-        <v>6062547.550102405</v>
+        <v>6270800.233641325</v>
       </c>
     </row>
     <row r="6">
@@ -6326,28 +6326,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4535.535119996849</v>
+        <v>4695.295575341315</v>
       </c>
       <c r="AB6" t="n">
-        <v>6205.719244867636</v>
+        <v>6424.310548003803</v>
       </c>
       <c r="AC6" t="n">
-        <v>5613.454109918897</v>
+        <v>5811.183365878561</v>
       </c>
       <c r="AD6" t="n">
-        <v>4535535.119996849</v>
+        <v>4695295.575341315</v>
       </c>
       <c r="AE6" t="n">
-        <v>6205719.244867636</v>
+        <v>6424310.548003803</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.395423658096083e-07</v>
+        <v>1.22905844084058e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.45208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>5613454.109918897</v>
+        <v>5811183.365878561</v>
       </c>
     </row>
     <row r="7">
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4267.69077640033</v>
+        <v>4427.536483090815</v>
       </c>
       <c r="AB7" t="n">
-        <v>5839.242797500379</v>
+        <v>6057.950745289198</v>
       </c>
       <c r="AC7" t="n">
-        <v>5281.953660335462</v>
+        <v>5479.788428545839</v>
       </c>
       <c r="AD7" t="n">
-        <v>4267690.77640033</v>
+        <v>4427536.483090815</v>
       </c>
       <c r="AE7" t="n">
-        <v>5839242.797500379</v>
+        <v>6057950.745289197</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.60217775501486e-07</v>
+        <v>1.259326462842226e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.54791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>5281953.660335462</v>
+        <v>5479788.428545838</v>
       </c>
     </row>
     <row r="8">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4048.63053093498</v>
+        <v>4208.390896770896</v>
       </c>
       <c r="AB8" t="n">
-        <v>5539.514905398712</v>
+        <v>5758.10608606533</v>
       </c>
       <c r="AC8" t="n">
-        <v>5010.831377585249</v>
+        <v>5208.560522763687</v>
       </c>
       <c r="AD8" t="n">
-        <v>4048630.530934981</v>
+        <v>4208390.896770895</v>
       </c>
       <c r="AE8" t="n">
-        <v>5539514.905398712</v>
+        <v>5758106.08606533</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.754602308217756e-07</v>
+        <v>1.281640844025922e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.9125</v>
       </c>
       <c r="AH8" t="n">
-        <v>5010831.377585249</v>
+        <v>5208560.522763687</v>
       </c>
     </row>
     <row r="9">
@@ -6644,28 +6644,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3870.311427590131</v>
+        <v>4021.654459379594</v>
       </c>
       <c r="AB9" t="n">
-        <v>5295.530841318651</v>
+        <v>5502.605054196345</v>
       </c>
       <c r="AC9" t="n">
-        <v>4790.132810147215</v>
+        <v>4977.444150778337</v>
       </c>
       <c r="AD9" t="n">
-        <v>3870311.427590131</v>
+        <v>4021654.459379594</v>
       </c>
       <c r="AE9" t="n">
-        <v>5295530.841318651</v>
+        <v>5502605.054196345</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.866279703633739e-07</v>
+        <v>1.297989994596154e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.46041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>4790132.810147215</v>
+        <v>4977444.150778336</v>
       </c>
     </row>
     <row r="10">
@@ -6750,28 +6750,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3787.348313440492</v>
+        <v>3938.691345229955</v>
       </c>
       <c r="AB10" t="n">
-        <v>5182.017048464828</v>
+        <v>5389.09126134252</v>
       </c>
       <c r="AC10" t="n">
-        <v>4687.452614365757</v>
+        <v>4874.763954996876</v>
       </c>
       <c r="AD10" t="n">
-        <v>3787348.313440492</v>
+        <v>3938691.345229954</v>
       </c>
       <c r="AE10" t="n">
-        <v>5182017.048464828</v>
+        <v>5389091.26134252</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.91457263138119e-07</v>
+        <v>1.305059897545444e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.26875</v>
       </c>
       <c r="AH10" t="n">
-        <v>4687452.614365757</v>
+        <v>4874763.954996876</v>
       </c>
     </row>
     <row r="11">
@@ -6856,28 +6856,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3794.138000401213</v>
+        <v>3945.481032190676</v>
       </c>
       <c r="AB11" t="n">
-        <v>5191.306997704334</v>
+        <v>5398.381210582027</v>
       </c>
       <c r="AC11" t="n">
-        <v>4695.855943888369</v>
+        <v>4883.16728451949</v>
       </c>
       <c r="AD11" t="n">
-        <v>3794138.000401212</v>
+        <v>3945481.032190676</v>
       </c>
       <c r="AE11" t="n">
-        <v>5191306.997704335</v>
+        <v>5398381.210582027</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.922118401341728e-07</v>
+        <v>1.30616456988127e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.2375</v>
       </c>
       <c r="AH11" t="n">
-        <v>4695855.943888369</v>
+        <v>4883167.28451949</v>
       </c>
     </row>
     <row r="12">
@@ -6962,28 +6962,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3812.23858789456</v>
+        <v>3963.581619684023</v>
       </c>
       <c r="AB12" t="n">
-        <v>5216.073020054296</v>
+        <v>5423.14723293199</v>
       </c>
       <c r="AC12" t="n">
-        <v>4718.258331824581</v>
+        <v>4905.569672455702</v>
       </c>
       <c r="AD12" t="n">
-        <v>3812238.58789456</v>
+        <v>3963581.619684023</v>
       </c>
       <c r="AE12" t="n">
-        <v>5216073.020054296</v>
+        <v>5423147.23293199</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.922118401341728e-07</v>
+        <v>1.30616456988127e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.2375</v>
       </c>
       <c r="AH12" t="n">
-        <v>4718258.33182458</v>
+        <v>4905569.672455702</v>
       </c>
     </row>
   </sheetData>
@@ -7259,28 +7259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5114.324159295466</v>
+        <v>5308.250444596298</v>
       </c>
       <c r="AB2" t="n">
-        <v>6997.643942806335</v>
+        <v>7262.982441778846</v>
       </c>
       <c r="AC2" t="n">
-        <v>6329.798626159592</v>
+        <v>6569.813591195077</v>
       </c>
       <c r="AD2" t="n">
-        <v>5114324.159295466</v>
+        <v>5308250.444596298</v>
       </c>
       <c r="AE2" t="n">
-        <v>6997643.942806335</v>
+        <v>7262982.441778846</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.23781483025982e-07</v>
+        <v>1.119779292699522e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>6329798.626159592</v>
+        <v>6569813.591195077</v>
       </c>
     </row>
     <row r="3">
@@ -7365,28 +7365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3260.488559627654</v>
+        <v>3415.74899345788</v>
       </c>
       <c r="AB3" t="n">
-        <v>4461.144289886161</v>
+        <v>4673.578465059606</v>
       </c>
       <c r="AC3" t="n">
-        <v>4035.378940114592</v>
+        <v>4227.538695762714</v>
       </c>
       <c r="AD3" t="n">
-        <v>3260488.559627654</v>
+        <v>3415748.99345788</v>
       </c>
       <c r="AE3" t="n">
-        <v>4461144.289886161</v>
+        <v>4673578.465059606</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.063266499873976e-07</v>
+        <v>1.402199198070923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.7125</v>
       </c>
       <c r="AH3" t="n">
-        <v>4035378.940114592</v>
+        <v>4227538.695762714</v>
       </c>
     </row>
     <row r="4">
@@ -7471,28 +7471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2888.010648887465</v>
+        <v>3035.503793983451</v>
       </c>
       <c r="AB4" t="n">
-        <v>3951.503579845735</v>
+        <v>4153.310207904399</v>
       </c>
       <c r="AC4" t="n">
-        <v>3574.377624155215</v>
+        <v>3756.924110869335</v>
       </c>
       <c r="AD4" t="n">
-        <v>2888010.648887465</v>
+        <v>3035503.793983451</v>
       </c>
       <c r="AE4" t="n">
-        <v>3951503.579845735</v>
+        <v>4153310.207904399</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.496053473205008e-07</v>
+        <v>1.469156684861006e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.94791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>3574377.624155215</v>
+        <v>3756924.110869335</v>
       </c>
     </row>
     <row r="5">
@@ -7577,28 +7577,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2902.814457442739</v>
+        <v>3050.307602538725</v>
       </c>
       <c r="AB5" t="n">
-        <v>3971.758803809003</v>
+        <v>4173.565431867667</v>
       </c>
       <c r="AC5" t="n">
-        <v>3592.699717971813</v>
+        <v>3775.246204685932</v>
       </c>
       <c r="AD5" t="n">
-        <v>2902814.457442739</v>
+        <v>3050307.602538725</v>
       </c>
       <c r="AE5" t="n">
-        <v>3971758.803809003</v>
+        <v>4173565.431867667</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.504473453230904e-07</v>
+        <v>1.47045935970128e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.91041666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>3592699.717971813</v>
+        <v>3775246.204685932</v>
       </c>
     </row>
   </sheetData>
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7784.981238541197</v>
+        <v>8017.347805326627</v>
       </c>
       <c r="AB2" t="n">
-        <v>10651.7547797055</v>
+        <v>10969.68896767077</v>
       </c>
       <c r="AC2" t="n">
-        <v>9635.166253361727</v>
+        <v>9922.757248651016</v>
       </c>
       <c r="AD2" t="n">
-        <v>7784981.238541197</v>
+        <v>8017347.805326628</v>
       </c>
       <c r="AE2" t="n">
-        <v>10651754.7797055</v>
+        <v>10969688.96767076</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.978515782478458e-07</v>
+        <v>9.035294842279627e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.1375</v>
       </c>
       <c r="AH2" t="n">
-        <v>9635166.253361728</v>
+        <v>9922757.248651017</v>
       </c>
     </row>
     <row r="3">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4464.159816935045</v>
+        <v>4632.440000481089</v>
       </c>
       <c r="AB3" t="n">
-        <v>6108.060406362332</v>
+        <v>6338.308777487782</v>
       </c>
       <c r="AC3" t="n">
-        <v>5525.115693895502</v>
+        <v>5733.389483636348</v>
       </c>
       <c r="AD3" t="n">
-        <v>4464159.816935046</v>
+        <v>4632440.000481089</v>
       </c>
       <c r="AE3" t="n">
-        <v>6108060.406362332</v>
+        <v>6338308.777487782</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.098625394373271e-07</v>
+        <v>1.223940371116672e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.44375</v>
       </c>
       <c r="AH3" t="n">
-        <v>5525115.693895502</v>
+        <v>5733389.483636348</v>
       </c>
     </row>
     <row r="4">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3694.080590008339</v>
+        <v>3854.339218534087</v>
       </c>
       <c r="AB4" t="n">
-        <v>5054.40403458339</v>
+        <v>5273.676960244039</v>
       </c>
       <c r="AC4" t="n">
-        <v>4572.018807423177</v>
+        <v>4770.364632810249</v>
       </c>
       <c r="AD4" t="n">
-        <v>3694080.590008339</v>
+        <v>3854339.218534087</v>
       </c>
       <c r="AE4" t="n">
-        <v>5054404.03458339</v>
+        <v>5273676.960244039</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.852585347539511e-07</v>
+        <v>1.337885884083173e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.91458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4572018.807423177</v>
+        <v>4770364.632810249</v>
       </c>
     </row>
     <row r="5">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3299.985455193888</v>
+        <v>3452.137366861872</v>
       </c>
       <c r="AB5" t="n">
-        <v>4515.185684879939</v>
+        <v>4723.366642892686</v>
       </c>
       <c r="AC5" t="n">
-        <v>4084.262700217738</v>
+        <v>4272.57515978155</v>
       </c>
       <c r="AD5" t="n">
-        <v>3299985.455193888</v>
+        <v>3452137.366861871</v>
       </c>
       <c r="AE5" t="n">
-        <v>4515185.684879939</v>
+        <v>4723366.642892687</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.232787375204539e-07</v>
+        <v>1.395345587203033e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.35416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>4084262.700217738</v>
+        <v>4272575.15978155</v>
       </c>
     </row>
     <row r="6">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3194.276134536835</v>
+        <v>3346.51329755084</v>
       </c>
       <c r="AB6" t="n">
-        <v>4370.549528790862</v>
+        <v>4578.847131456259</v>
       </c>
       <c r="AC6" t="n">
-        <v>3953.430415867687</v>
+        <v>4141.848387682212</v>
       </c>
       <c r="AD6" t="n">
-        <v>3194276.134536835</v>
+        <v>3346513.297550839</v>
       </c>
       <c r="AE6" t="n">
-        <v>4370549.528790862</v>
+        <v>4578847.13145626</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.326226856579841e-07</v>
+        <v>1.409467039664693e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.98541666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3953430.415867687</v>
+        <v>4141848.387682212</v>
       </c>
     </row>
     <row r="7">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3211.843818368122</v>
+        <v>3364.080981382127</v>
       </c>
       <c r="AB7" t="n">
-        <v>4394.586408840341</v>
+        <v>4602.884011505739</v>
       </c>
       <c r="AC7" t="n">
-        <v>3975.173249821217</v>
+        <v>4163.591221635742</v>
       </c>
       <c r="AD7" t="n">
-        <v>3211843.818368122</v>
+        <v>3364080.981382126</v>
       </c>
       <c r="AE7" t="n">
-        <v>4394586.408840341</v>
+        <v>4602884.011505739</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.326226856579841e-07</v>
+        <v>1.409467039664693e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.98541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3975173.249821217</v>
+        <v>4163591.221635742</v>
       </c>
     </row>
   </sheetData>
@@ -8701,28 +8701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3581.468629916815</v>
+        <v>3755.150615861918</v>
       </c>
       <c r="AB2" t="n">
-        <v>4900.323382697107</v>
+        <v>5137.962738175653</v>
       </c>
       <c r="AC2" t="n">
-        <v>4432.643396699375</v>
+        <v>4647.602785619969</v>
       </c>
       <c r="AD2" t="n">
-        <v>3581468.629916815</v>
+        <v>3755150.615861918</v>
       </c>
       <c r="AE2" t="n">
-        <v>4900323.382697107</v>
+        <v>5137962.738175653</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.340845307511225e-07</v>
+        <v>1.318260583782635e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>4432643.396699375</v>
+        <v>4647602.785619969</v>
       </c>
     </row>
     <row r="3">
@@ -8807,28 +8807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2661.881244466522</v>
+        <v>2805.413414226184</v>
       </c>
       <c r="AB3" t="n">
-        <v>3642.10335259174</v>
+        <v>3838.490399449346</v>
       </c>
       <c r="AC3" t="n">
-        <v>3294.506120344407</v>
+        <v>3472.150263080867</v>
       </c>
       <c r="AD3" t="n">
-        <v>2661881.244466522</v>
+        <v>2805413.414226184</v>
       </c>
       <c r="AE3" t="n">
-        <v>3642103.35259174</v>
+        <v>3838490.399449346</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.545886703375186e-07</v>
+        <v>1.508715929185494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.16666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3294506.120344407</v>
+        <v>3472150.263080867</v>
       </c>
     </row>
     <row r="4">
@@ -8913,28 +8913,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2687.440130981923</v>
+        <v>2830.972300741585</v>
       </c>
       <c r="AB4" t="n">
-        <v>3677.074148700606</v>
+        <v>3873.461195558211</v>
       </c>
       <c r="AC4" t="n">
-        <v>3326.139352754462</v>
+        <v>3503.783495490922</v>
       </c>
       <c r="AD4" t="n">
-        <v>2687440.130981923</v>
+        <v>2830972.300741585</v>
       </c>
       <c r="AE4" t="n">
-        <v>3677074.148700606</v>
+        <v>3873461.195558211</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.545886703375186e-07</v>
+        <v>1.508715929185494e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.17083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3326139.352754462</v>
+        <v>3503783.495490922</v>
       </c>
     </row>
   </sheetData>
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>18254.62290225404</v>
+        <v>18610.28255109282</v>
       </c>
       <c r="AB2" t="n">
-        <v>24976.78039199001</v>
+        <v>25463.40961412757</v>
       </c>
       <c r="AC2" t="n">
-        <v>22593.03152650899</v>
+        <v>23033.21753867413</v>
       </c>
       <c r="AD2" t="n">
-        <v>18254622.90225404</v>
+        <v>18610282.55109281</v>
       </c>
       <c r="AE2" t="n">
-        <v>24976780.39199001</v>
+        <v>25463409.61412757</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.860136812171137e-07</v>
+        <v>5.627640531775197e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>81</v>
+        <v>80.71875</v>
       </c>
       <c r="AH2" t="n">
-        <v>22593031.52650899</v>
+        <v>23033217.53867413</v>
       </c>
     </row>
     <row r="3">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7402.650798606588</v>
+        <v>7605.945930919136</v>
       </c>
       <c r="AB3" t="n">
-        <v>10128.63340455836</v>
+        <v>10406.79077333665</v>
       </c>
       <c r="AC3" t="n">
-        <v>9161.970848053188</v>
+        <v>9413.581267951595</v>
       </c>
       <c r="AD3" t="n">
-        <v>7402650.798606589</v>
+        <v>7605945.930919136</v>
       </c>
       <c r="AE3" t="n">
-        <v>10128633.40455835</v>
+        <v>10406790.77333665</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.475936612437437e-07</v>
+        <v>9.44117919511298e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.10833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>9161970.848053189</v>
+        <v>9413581.267951595</v>
       </c>
     </row>
     <row r="4">
@@ -9422,28 +9422,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5821.265618831409</v>
+        <v>6007.526955475952</v>
       </c>
       <c r="AB4" t="n">
-        <v>7964.912435799519</v>
+        <v>8219.763413866825</v>
       </c>
       <c r="AC4" t="n">
-        <v>7204.752371751325</v>
+        <v>7435.280730157473</v>
       </c>
       <c r="AD4" t="n">
-        <v>5821265.618831408</v>
+        <v>6007526.955475952</v>
       </c>
       <c r="AE4" t="n">
-        <v>7964912.435799519</v>
+        <v>8219763.413866826</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.431623331917235e-07</v>
+        <v>1.08344617599345e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.92916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>7204752.371751325</v>
+        <v>7435280.730157473</v>
       </c>
     </row>
     <row r="5">
@@ -9528,28 +9528,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5160.980148757826</v>
+        <v>5330.293209606041</v>
       </c>
       <c r="AB5" t="n">
-        <v>7061.480725905728</v>
+        <v>7293.142325323338</v>
       </c>
       <c r="AC5" t="n">
-        <v>6387.542916275462</v>
+        <v>6597.095057783744</v>
       </c>
       <c r="AD5" t="n">
-        <v>5160980.148757827</v>
+        <v>5330293.209606041</v>
       </c>
       <c r="AE5" t="n">
-        <v>7061480.725905728</v>
+        <v>7293142.325323338</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.935639645633496e-07</v>
+        <v>1.156926023308764e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.26666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>6387542.916275462</v>
+        <v>6597095.057783744</v>
       </c>
     </row>
     <row r="6">
@@ -9634,28 +9634,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4769.258269070825</v>
+        <v>4938.571240410488</v>
       </c>
       <c r="AB6" t="n">
-        <v>6525.509568568279</v>
+        <v>6757.17104551634</v>
       </c>
       <c r="AC6" t="n">
-        <v>5902.724093954078</v>
+        <v>6112.276124681131</v>
       </c>
       <c r="AD6" t="n">
-        <v>4769258.269070825</v>
+        <v>4938571.240410488</v>
       </c>
       <c r="AE6" t="n">
-        <v>6525509.568568279</v>
+        <v>6757171.04551634</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.243732703869551e-07</v>
+        <v>1.201842487839786e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.79375</v>
       </c>
       <c r="AH6" t="n">
-        <v>5902724.093954078</v>
+        <v>6112276.124681132</v>
       </c>
     </row>
     <row r="7">
@@ -9740,28 +9740,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4496.676621805806</v>
+        <v>4657.600751347602</v>
       </c>
       <c r="AB7" t="n">
-        <v>6152.551333326697</v>
+        <v>6372.734826837333</v>
       </c>
       <c r="AC7" t="n">
-        <v>5565.360469233794</v>
+        <v>5764.529959153241</v>
       </c>
       <c r="AD7" t="n">
-        <v>4496676.621805806</v>
+        <v>4657600.751347601</v>
       </c>
       <c r="AE7" t="n">
-        <v>6152551.333326697</v>
+        <v>6372734.826837333</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.459098725160772e-07</v>
+        <v>1.233240404793511e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.83333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>5565360.469233794</v>
+        <v>5764529.959153241</v>
       </c>
     </row>
     <row r="8">
@@ -9846,28 +9846,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4278.102665192972</v>
+        <v>4430.552701590878</v>
       </c>
       <c r="AB8" t="n">
-        <v>5853.48880308659</v>
+        <v>6062.07766850715</v>
       </c>
       <c r="AC8" t="n">
-        <v>5294.840047142917</v>
+        <v>5483.521484004044</v>
       </c>
       <c r="AD8" t="n">
-        <v>4278102.665192972</v>
+        <v>4430552.701590878</v>
       </c>
       <c r="AE8" t="n">
-        <v>5853488.803086589</v>
+        <v>6062077.668507149</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.616136449018954e-07</v>
+        <v>1.256134719238935e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.16041666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>5294840.047142916</v>
+        <v>5483521.484004044</v>
       </c>
     </row>
     <row r="9">
@@ -9952,28 +9952,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4089.999446776525</v>
+        <v>4250.838235463749</v>
       </c>
       <c r="AB9" t="n">
-        <v>5596.117681120876</v>
+        <v>5816.184407509315</v>
       </c>
       <c r="AC9" t="n">
-        <v>5062.032063834984</v>
+        <v>5261.095930722492</v>
       </c>
       <c r="AD9" t="n">
-        <v>4089999.446776526</v>
+        <v>4250838.235463749</v>
       </c>
       <c r="AE9" t="n">
-        <v>5596117.681120876</v>
+        <v>5816184.407509315</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.737279835995268e-07</v>
+        <v>1.273796047525405e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.6625</v>
       </c>
       <c r="AH9" t="n">
-        <v>5062032.063834984</v>
+        <v>5261095.930722492</v>
       </c>
     </row>
     <row r="10">
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3931.298649853513</v>
+        <v>4083.663345396847</v>
       </c>
       <c r="AB10" t="n">
-        <v>5378.976249385771</v>
+        <v>5587.448347684134</v>
       </c>
       <c r="AC10" t="n">
-        <v>4865.61430558477</v>
+        <v>5054.190119413959</v>
       </c>
       <c r="AD10" t="n">
-        <v>3931298.649853513</v>
+        <v>4083663.345396847</v>
       </c>
       <c r="AE10" t="n">
-        <v>5378976.24938577</v>
+        <v>5587448.347684134</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.825520080829865e-07</v>
+        <v>1.286660471832833e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.30416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>4865614.30558477</v>
+        <v>5054190.119413959</v>
       </c>
     </row>
     <row r="11">
@@ -10164,28 +10164,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3878.056286899332</v>
+        <v>4030.420982442667</v>
       </c>
       <c r="AB11" t="n">
-        <v>5306.127699504578</v>
+        <v>5514.599797802944</v>
       </c>
       <c r="AC11" t="n">
-        <v>4799.718319060661</v>
+        <v>4988.294132889849</v>
       </c>
       <c r="AD11" t="n">
-        <v>3878056.286899332</v>
+        <v>4030420.982442667</v>
       </c>
       <c r="AE11" t="n">
-        <v>5306127.699504578</v>
+        <v>5514599.797802944</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.858423222971581e-07</v>
+        <v>1.291457375811875e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.17291666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>4799718.319060661</v>
+        <v>4988294.132889849</v>
       </c>
     </row>
     <row r="12">
@@ -10270,28 +10270,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3890.011254221517</v>
+        <v>4042.375949764852</v>
       </c>
       <c r="AB12" t="n">
-        <v>5322.485013210727</v>
+        <v>5530.957111509092</v>
       </c>
       <c r="AC12" t="n">
-        <v>4814.514513704329</v>
+        <v>5003.090327533516</v>
       </c>
       <c r="AD12" t="n">
-        <v>3890011.254221517</v>
+        <v>4042375.949764851</v>
       </c>
       <c r="AE12" t="n">
-        <v>5322485.013210727</v>
+        <v>5530957.111509092</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.864405612451891e-07</v>
+        <v>1.2923295401717e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.14791666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>4814514.513704329</v>
+        <v>5003090.327533516</v>
       </c>
     </row>
   </sheetData>
@@ -10567,28 +10567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2835.014355739358</v>
+        <v>2990.986365140685</v>
       </c>
       <c r="AB2" t="n">
-        <v>3878.991713529046</v>
+        <v>4092.399497791374</v>
       </c>
       <c r="AC2" t="n">
-        <v>3508.786188588751</v>
+        <v>3701.82663344078</v>
       </c>
       <c r="AD2" t="n">
-        <v>2835014.355739357</v>
+        <v>2990986.365140685</v>
       </c>
       <c r="AE2" t="n">
-        <v>3878991.713529046</v>
+        <v>4092399.497791374</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.042401328289934e-07</v>
+        <v>1.448805096699578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.23541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3508786.188588751</v>
+        <v>3701826.63344078</v>
       </c>
     </row>
     <row r="3">
@@ -10673,28 +10673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2552.486171766806</v>
+        <v>2701.02281918709</v>
       </c>
       <c r="AB3" t="n">
-        <v>3492.424187953986</v>
+        <v>3695.658581928829</v>
       </c>
       <c r="AC3" t="n">
-        <v>3159.112125103659</v>
+        <v>3342.950113758799</v>
       </c>
       <c r="AD3" t="n">
-        <v>2552486.171766806</v>
+        <v>2701022.81918709</v>
       </c>
       <c r="AE3" t="n">
-        <v>3492424.187953986</v>
+        <v>3695658.581928829</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.498817072295067e-07</v>
+        <v>1.521933619989046e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.25625</v>
       </c>
       <c r="AH3" t="n">
-        <v>3159112.125103659</v>
+        <v>3342950.113758799</v>
       </c>
     </row>
   </sheetData>
@@ -10970,28 +10970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>11267.07228468978</v>
+        <v>11538.5977156143</v>
       </c>
       <c r="AB2" t="n">
-        <v>15416.10536806134</v>
+        <v>15787.61844150886</v>
       </c>
       <c r="AC2" t="n">
-        <v>13944.81390837276</v>
+        <v>14280.87029551231</v>
       </c>
       <c r="AD2" t="n">
-        <v>11267072.28468978</v>
+        <v>11538597.7156143</v>
       </c>
       <c r="AE2" t="n">
-        <v>15416105.36806134</v>
+        <v>15787618.44150886</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.974113125581626e-07</v>
+        <v>7.385778036272293e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.12708333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>13944813.90837276</v>
+        <v>14280870.29551231</v>
       </c>
     </row>
     <row r="3">
@@ -11076,28 +11076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5653.807879467456</v>
+        <v>5834.85331020484</v>
       </c>
       <c r="AB3" t="n">
-        <v>7735.789369087684</v>
+        <v>7983.503714583285</v>
       </c>
       <c r="AC3" t="n">
-        <v>6997.496488950235</v>
+        <v>7221.569324980993</v>
       </c>
       <c r="AD3" t="n">
-        <v>5653807.879467456</v>
+        <v>5834853.31020484</v>
       </c>
       <c r="AE3" t="n">
-        <v>7735789.369087684</v>
+        <v>7983503.714583285</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.339110332211713e-07</v>
+        <v>1.089742804976718e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.14166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>6997496.488950235</v>
+        <v>7221569.324980993</v>
       </c>
     </row>
     <row r="4">
@@ -11182,28 +11182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4613.892613673726</v>
+        <v>4786.619401226013</v>
       </c>
       <c r="AB4" t="n">
-        <v>6312.931424604989</v>
+        <v>6549.263835502104</v>
       </c>
       <c r="AC4" t="n">
-        <v>5710.43410969535</v>
+        <v>5924.21128699106</v>
       </c>
       <c r="AD4" t="n">
-        <v>4613892.613673726</v>
+        <v>4786619.401226013</v>
       </c>
       <c r="AE4" t="n">
-        <v>6312931.424604989</v>
+        <v>6549263.835502105</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.175644518383303e-07</v>
+        <v>1.213955014527031e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.62083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>5710434.109695351</v>
+        <v>5924211.28699106</v>
       </c>
     </row>
     <row r="5">
@@ -11288,28 +11288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4120.92167731246</v>
+        <v>4277.352720929945</v>
       </c>
       <c r="AB5" t="n">
-        <v>5638.426841132676</v>
+        <v>5852.462696260709</v>
       </c>
       <c r="AC5" t="n">
-        <v>5100.303296996534</v>
+        <v>5293.911870512348</v>
       </c>
       <c r="AD5" t="n">
-        <v>4120921.67731246</v>
+        <v>4277352.720929946</v>
       </c>
       <c r="AE5" t="n">
-        <v>5638426.841132675</v>
+        <v>5852462.696260709</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.620344847835114e-07</v>
+        <v>1.279986040421807e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.58125</v>
       </c>
       <c r="AH5" t="n">
-        <v>5100303.296996534</v>
+        <v>5293911.870512349</v>
       </c>
     </row>
     <row r="6">
@@ -11394,28 +11394,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3798.828001083783</v>
+        <v>3955.003111646105</v>
       </c>
       <c r="AB6" t="n">
-        <v>5197.724063546456</v>
+        <v>5411.409739777444</v>
       </c>
       <c r="AC6" t="n">
-        <v>4701.660573972926</v>
+        <v>4894.952389174153</v>
       </c>
       <c r="AD6" t="n">
-        <v>3798828.001083783</v>
+        <v>3955003.111646105</v>
       </c>
       <c r="AE6" t="n">
-        <v>5197724.063546455</v>
+        <v>5411409.739777444</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.889341900265756e-07</v>
+        <v>1.319927884756758e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.4375</v>
       </c>
       <c r="AH6" t="n">
-        <v>4701660.573972926</v>
+        <v>4894952.389174153</v>
       </c>
     </row>
     <row r="7">
@@ -11500,28 +11500,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3557.48982278841</v>
+        <v>3713.750184696752</v>
       </c>
       <c r="AB7" t="n">
-        <v>4867.514520913713</v>
+        <v>5081.316841797352</v>
       </c>
       <c r="AC7" t="n">
-        <v>4402.965766637061</v>
+        <v>4596.363094089</v>
       </c>
       <c r="AD7" t="n">
-        <v>3557489.82278841</v>
+        <v>3713750.184696752</v>
       </c>
       <c r="AE7" t="n">
-        <v>4867514.520913713</v>
+        <v>5081316.841797352</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.06660007354375e-07</v>
+        <v>1.346247944029501e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.72708333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4402965.766637062</v>
+        <v>4596363.094089</v>
       </c>
     </row>
     <row r="8">
@@ -11606,28 +11606,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3494.401850064358</v>
+        <v>3642.59968085987</v>
       </c>
       <c r="AB8" t="n">
-        <v>4781.194773387734</v>
+        <v>4983.965583509031</v>
       </c>
       <c r="AC8" t="n">
-        <v>4324.884254664439</v>
+        <v>4508.30290325837</v>
       </c>
       <c r="AD8" t="n">
-        <v>3494401.850064358</v>
+        <v>3642599.68085987</v>
       </c>
       <c r="AE8" t="n">
-        <v>4781194.773387734</v>
+        <v>4983965.583509031</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.116356753762135e-07</v>
+        <v>1.353636030842903e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.53541666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>4324884.254664439</v>
+        <v>4508302.90325837</v>
       </c>
     </row>
     <row r="9">
@@ -11712,28 +11712,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3509.354446454698</v>
+        <v>3657.55227725021</v>
       </c>
       <c r="AB9" t="n">
-        <v>4801.653575430996</v>
+        <v>5004.424385552291</v>
       </c>
       <c r="AC9" t="n">
-        <v>4343.390497354799</v>
+        <v>4526.80914594873</v>
       </c>
       <c r="AD9" t="n">
-        <v>3509354.446454698</v>
+        <v>3657552.27725021</v>
       </c>
       <c r="AE9" t="n">
-        <v>4801653.575430996</v>
+        <v>5004424.385552291</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.119466546275784e-07</v>
+        <v>1.35409778626874e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.52083333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>4343390.497354799</v>
+        <v>4526809.14594873</v>
       </c>
     </row>
   </sheetData>
@@ -12009,28 +12009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>14322.11227232104</v>
+        <v>14631.1210657668</v>
       </c>
       <c r="AB2" t="n">
-        <v>19596.14585799069</v>
+        <v>20018.94532168905</v>
       </c>
       <c r="AC2" t="n">
-        <v>17725.91720066677</v>
+        <v>18108.36527695251</v>
       </c>
       <c r="AD2" t="n">
-        <v>14322112.27232104</v>
+        <v>14631121.0657668</v>
       </c>
       <c r="AE2" t="n">
-        <v>19596145.85799069</v>
+        <v>20018945.32168905</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.39069400349564e-07</v>
+        <v>6.456262975654276e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>17725917.20066677</v>
+        <v>18108365.27695251</v>
       </c>
     </row>
     <row r="3">
@@ -12115,28 +12115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6499.967110998363</v>
+        <v>6692.127500450217</v>
       </c>
       <c r="AB3" t="n">
-        <v>8893.541759579019</v>
+        <v>9156.464081945131</v>
       </c>
       <c r="AC3" t="n">
-        <v>8044.754616208718</v>
+        <v>8282.584001141995</v>
       </c>
       <c r="AD3" t="n">
-        <v>6499967.110998363</v>
+        <v>6692127.500450217</v>
       </c>
       <c r="AE3" t="n">
-        <v>8893541.759579018</v>
+        <v>9156464.081945131</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.889215226858877e-07</v>
+        <v>1.013019471752555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.07291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>8044754.616208718</v>
+        <v>8282584.001141994</v>
       </c>
     </row>
     <row r="4">
@@ -12221,28 +12221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5211.840428427003</v>
+        <v>5387.283716127012</v>
       </c>
       <c r="AB4" t="n">
-        <v>7131.070004346278</v>
+        <v>7371.119250589035</v>
       </c>
       <c r="AC4" t="n">
-        <v>6450.490691650811</v>
+        <v>6667.629974743383</v>
       </c>
       <c r="AD4" t="n">
-        <v>5211840.428427002</v>
+        <v>5387283.716127012</v>
       </c>
       <c r="AE4" t="n">
-        <v>7131070.004346278</v>
+        <v>7371119.250589035</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.788073471849309e-07</v>
+        <v>1.145191406368656e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.75208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>6450490.691650811</v>
+        <v>6667629.974743383</v>
       </c>
     </row>
     <row r="5">
@@ -12327,28 +12327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4645.722627639904</v>
+        <v>4812.636817017675</v>
       </c>
       <c r="AB5" t="n">
-        <v>6356.482653954627</v>
+        <v>6584.862011595636</v>
       </c>
       <c r="AC5" t="n">
-        <v>5749.828870840394</v>
+        <v>5956.412023120576</v>
       </c>
       <c r="AD5" t="n">
-        <v>4645722.627639905</v>
+        <v>4812636.817017674</v>
       </c>
       <c r="AE5" t="n">
-        <v>6356482.653954627</v>
+        <v>6584862.011595636</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.258831434056164e-07</v>
+        <v>1.214413656870987e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.43125</v>
       </c>
       <c r="AH5" t="n">
-        <v>5749828.870840394</v>
+        <v>5956412.023120577</v>
       </c>
     </row>
     <row r="6">
@@ -12433,28 +12433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4295.779931992669</v>
+        <v>4454.420956103364</v>
       </c>
       <c r="AB6" t="n">
-        <v>5877.675619387906</v>
+        <v>6094.735267324209</v>
       </c>
       <c r="AC6" t="n">
-        <v>5316.718507642845</v>
+        <v>5513.062287425228</v>
       </c>
       <c r="AD6" t="n">
-        <v>4295779.931992669</v>
+        <v>4454420.956103364</v>
       </c>
       <c r="AE6" t="n">
-        <v>5877675.619387906</v>
+        <v>6094735.267324208</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.554388212917425e-07</v>
+        <v>1.257873581134586e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.10625</v>
       </c>
       <c r="AH6" t="n">
-        <v>5316718.507642845</v>
+        <v>5513062.287425227</v>
       </c>
     </row>
     <row r="7">
@@ -12539,28 +12539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4035.438730219866</v>
+        <v>4185.806589063486</v>
       </c>
       <c r="AB7" t="n">
-        <v>5521.465301679118</v>
+        <v>5727.205239910714</v>
       </c>
       <c r="AC7" t="n">
-        <v>4994.504402711875</v>
+        <v>5180.608809996459</v>
       </c>
       <c r="AD7" t="n">
-        <v>4035438.730219866</v>
+        <v>4185806.589063487</v>
       </c>
       <c r="AE7" t="n">
-        <v>5521465.301679118</v>
+        <v>5727205.239910714</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.753965213076318e-07</v>
+        <v>1.287220231023924e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.26041666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>4994504.402711875</v>
+        <v>5180608.809996459</v>
       </c>
     </row>
     <row r="8">
@@ -12645,28 +12645,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3809.091012731702</v>
+        <v>3967.731947333847</v>
       </c>
       <c r="AB8" t="n">
-        <v>5211.766368855258</v>
+        <v>5428.825894322012</v>
       </c>
       <c r="AC8" t="n">
-        <v>4714.362701371555</v>
+        <v>4910.706370372712</v>
       </c>
       <c r="AD8" t="n">
-        <v>3809091.012731703</v>
+        <v>3967731.947333847</v>
       </c>
       <c r="AE8" t="n">
-        <v>5211766.368855258</v>
+        <v>5428825.894322012</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.904790579608611e-07</v>
+        <v>1.309398233612049e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.64583333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>4714362.701371555</v>
+        <v>4910706.370372712</v>
       </c>
     </row>
     <row r="9">
@@ -12751,28 +12751,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3695.938161743677</v>
+        <v>3846.220679732725</v>
       </c>
       <c r="AB9" t="n">
-        <v>5056.945646181962</v>
+        <v>5262.568817291361</v>
       </c>
       <c r="AC9" t="n">
-        <v>4574.317851177955</v>
+        <v>4760.316635430599</v>
       </c>
       <c r="AD9" t="n">
-        <v>3695938.161743677</v>
+        <v>3846220.679732725</v>
       </c>
       <c r="AE9" t="n">
-        <v>5056945.646181962</v>
+        <v>5262568.817291361</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.974871052946847e-07</v>
+        <v>1.319703164107541e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.36458333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>4574317.851177955</v>
+        <v>4760316.6354306</v>
       </c>
     </row>
     <row r="10">
@@ -12857,28 +12857,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3689.539832303567</v>
+        <v>3839.822350292615</v>
       </c>
       <c r="AB10" t="n">
-        <v>5048.191169567628</v>
+        <v>5253.814340677029</v>
       </c>
       <c r="AC10" t="n">
-        <v>4566.398889524708</v>
+        <v>4752.397673777353</v>
       </c>
       <c r="AD10" t="n">
-        <v>3689539.832303566</v>
+        <v>3839822.350292615</v>
       </c>
       <c r="AE10" t="n">
-        <v>5048191.169567628</v>
+        <v>5253814.340677029</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.990105938455159e-07</v>
+        <v>1.32194336638917e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.30625</v>
       </c>
       <c r="AH10" t="n">
-        <v>4566398.889524709</v>
+        <v>4752397.673777353</v>
       </c>
     </row>
     <row r="11">
@@ -12963,28 +12963,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3707.998778698456</v>
+        <v>3858.281296687505</v>
       </c>
       <c r="AB11" t="n">
-        <v>5073.447514376358</v>
+        <v>5279.070685485759</v>
       </c>
       <c r="AC11" t="n">
-        <v>4589.244804232395</v>
+        <v>4775.24358848504</v>
       </c>
       <c r="AD11" t="n">
-        <v>3707998.778698456</v>
+        <v>3858281.296687505</v>
       </c>
       <c r="AE11" t="n">
-        <v>5073447.514376358</v>
+        <v>5279070.685485759</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.990105938455159e-07</v>
+        <v>1.32194336638917e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.30625</v>
       </c>
       <c r="AH11" t="n">
-        <v>4589244.804232395</v>
+        <v>4775243.58848504</v>
       </c>
     </row>
   </sheetData>
@@ -13260,28 +13260,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>23557.33596709638</v>
+        <v>23951.93715447893</v>
       </c>
       <c r="AB2" t="n">
-        <v>32232.18634649775</v>
+        <v>32772.09709965035</v>
       </c>
       <c r="AC2" t="n">
-        <v>29155.99171974431</v>
+        <v>29644.37414838549</v>
       </c>
       <c r="AD2" t="n">
-        <v>23557335.96709638</v>
+        <v>23951937.15447893</v>
       </c>
       <c r="AE2" t="n">
-        <v>32232186.34649776</v>
+        <v>32772097.09965035</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.36598898597915e-07</v>
+        <v>4.869820322653326e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>92</v>
+        <v>91.00208333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>29155991.71974431</v>
+        <v>29644374.14838549</v>
       </c>
     </row>
     <row r="3">
@@ -13366,28 +13366,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>8373.082020564167</v>
+        <v>8595.95796292556</v>
       </c>
       <c r="AB3" t="n">
-        <v>11456.42021484475</v>
+        <v>11761.36891177626</v>
       </c>
       <c r="AC3" t="n">
-        <v>10363.0355487263</v>
+        <v>10638.88037002083</v>
       </c>
       <c r="AD3" t="n">
-        <v>8373082.020564167</v>
+        <v>8595957.962925561</v>
       </c>
       <c r="AE3" t="n">
-        <v>11456420.21484475</v>
+        <v>11761368.91177626</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.095248731709731e-07</v>
+        <v>8.818438286325049e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.26666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>10363035.5487263</v>
+        <v>10638880.37002083</v>
       </c>
     </row>
     <row r="4">
@@ -13472,28 +13472,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>6460.797395063403</v>
+        <v>6649.430697446052</v>
       </c>
       <c r="AB4" t="n">
-        <v>8839.948026190898</v>
+        <v>9098.044432424822</v>
       </c>
       <c r="AC4" t="n">
-        <v>7996.275793515882</v>
+        <v>8229.739840979413</v>
       </c>
       <c r="AD4" t="n">
-        <v>6460797.395063403</v>
+        <v>6649430.697446052</v>
       </c>
       <c r="AE4" t="n">
-        <v>8839948.026190897</v>
+        <v>9098044.432424823</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.09813404775944e-07</v>
+        <v>1.026938518892425e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>7996275.793515882</v>
+        <v>8229739.840979414</v>
       </c>
     </row>
     <row r="5">
@@ -13578,28 +13578,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5687.573147978347</v>
+        <v>5859.12780079891</v>
       </c>
       <c r="AB5" t="n">
-        <v>7781.988499082803</v>
+        <v>8016.717143529039</v>
       </c>
       <c r="AC5" t="n">
-        <v>7039.286438819502</v>
+        <v>7251.612910883502</v>
       </c>
       <c r="AD5" t="n">
-        <v>5687573.147978347</v>
+        <v>5859127.800798911</v>
       </c>
       <c r="AE5" t="n">
-        <v>7781988.499082803</v>
+        <v>8016717.143529039</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.628986832354666e-07</v>
+        <v>1.103740840276342e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.15416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>7039286.438819502</v>
+        <v>7251612.910883502</v>
       </c>
     </row>
     <row r="6">
@@ -13684,28 +13684,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>5239.087605022508</v>
+        <v>5410.471576133928</v>
       </c>
       <c r="AB6" t="n">
-        <v>7168.350793424845</v>
+        <v>7402.845903626684</v>
       </c>
       <c r="AC6" t="n">
-        <v>6484.213454543634</v>
+        <v>6696.328680543756</v>
       </c>
       <c r="AD6" t="n">
-        <v>5239087.605022508</v>
+        <v>5410471.576133928</v>
       </c>
       <c r="AE6" t="n">
-        <v>7168350.793424845</v>
+        <v>7402845.903626684</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.964262275256914e-07</v>
+        <v>1.152247569571447e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.46458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>6484213.454543633</v>
+        <v>6696328.680543756</v>
       </c>
     </row>
     <row r="7">
@@ -13790,28 +13790,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4942.926697358826</v>
+        <v>5105.814014116489</v>
       </c>
       <c r="AB7" t="n">
-        <v>6763.130373862256</v>
+        <v>6985.999986731349</v>
       </c>
       <c r="AC7" t="n">
-        <v>6117.666703093683</v>
+        <v>6319.265952910008</v>
       </c>
       <c r="AD7" t="n">
-        <v>4942926.697358825</v>
+        <v>5105814.014116488</v>
       </c>
       <c r="AE7" t="n">
-        <v>6763130.373862255</v>
+        <v>6985999.986731349</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.187779237191746e-07</v>
+        <v>1.184585389101517e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.41458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>6117666.703093683</v>
+        <v>6319265.952910008</v>
       </c>
     </row>
     <row r="8">
@@ -13896,28 +13896,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4710.651345410812</v>
+        <v>4873.623913514494</v>
       </c>
       <c r="AB8" t="n">
-        <v>6445.320990061652</v>
+        <v>6668.307247583395</v>
       </c>
       <c r="AC8" t="n">
-        <v>5830.188600834749</v>
+        <v>6031.893362901787</v>
       </c>
       <c r="AD8" t="n">
-        <v>4710651.345410812</v>
+        <v>4873623.913514494</v>
       </c>
       <c r="AE8" t="n">
-        <v>6445320.990061652</v>
+        <v>6668307.247583395</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.358357971299908e-07</v>
+        <v>1.209264251374465e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.65416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>5830188.60083475</v>
+        <v>6031893.362901786</v>
       </c>
     </row>
     <row r="9">
@@ -14002,28 +14002,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4526.561911501072</v>
+        <v>4680.952573904976</v>
       </c>
       <c r="AB9" t="n">
-        <v>6193.441705133691</v>
+        <v>6404.685820670038</v>
       </c>
       <c r="AC9" t="n">
-        <v>5602.348321345527</v>
+        <v>5793.431594978054</v>
       </c>
       <c r="AD9" t="n">
-        <v>4526561.911501072</v>
+        <v>4680952.573904976</v>
       </c>
       <c r="AE9" t="n">
-        <v>6193441.705133691</v>
+        <v>6404685.820670038</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.48335100922399e-07</v>
+        <v>1.227347900453781e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.11041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>5602348.321345527</v>
+        <v>5793431.594978054</v>
       </c>
     </row>
     <row r="10">
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4356.255529951859</v>
+        <v>4519.142757200972</v>
       </c>
       <c r="AB10" t="n">
-        <v>5960.421000510761</v>
+        <v>6183.290490910304</v>
       </c>
       <c r="AC10" t="n">
-        <v>5391.566785725204</v>
+        <v>5593.165924760301</v>
       </c>
       <c r="AD10" t="n">
-        <v>4356255.529951859</v>
+        <v>4519142.757200971</v>
       </c>
       <c r="AE10" t="n">
-        <v>5960421.000510761</v>
+        <v>6183290.490910304</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.583345439563258e-07</v>
+        <v>1.241814819717233e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.68958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>5391566.785725203</v>
+        <v>5593165.924760301</v>
       </c>
     </row>
     <row r="11">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>4215.245392097779</v>
+        <v>4369.550713647111</v>
       </c>
       <c r="AB11" t="n">
-        <v>5767.484708970564</v>
+        <v>5978.612057384714</v>
       </c>
       <c r="AC11" t="n">
-        <v>5217.044063061826</v>
+        <v>5408.021713662414</v>
       </c>
       <c r="AD11" t="n">
-        <v>4215245.392097779</v>
+        <v>4369550.713647111</v>
       </c>
       <c r="AE11" t="n">
-        <v>5767484.708970564</v>
+        <v>5978612.057384714</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.665693793960302e-07</v>
+        <v>1.253728753228312e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.35416666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>5217044.063061826</v>
+        <v>5408021.713662414</v>
       </c>
     </row>
     <row r="12">
@@ -14320,28 +14320,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>4102.085889588388</v>
+        <v>4256.39121113772</v>
       </c>
       <c r="AB12" t="n">
-        <v>5612.654885392291</v>
+        <v>5823.782233806441</v>
       </c>
       <c r="AC12" t="n">
-        <v>5076.990980540846</v>
+        <v>5267.968631141435</v>
       </c>
       <c r="AD12" t="n">
-        <v>4102085.889588388</v>
+        <v>4256391.21113772</v>
       </c>
       <c r="AE12" t="n">
-        <v>5612654.885392291</v>
+        <v>5823782.233806441</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.721573034444009e-07</v>
+        <v>1.261813208110829e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.12708333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>5076990.980540846</v>
+        <v>5267968.631141435</v>
       </c>
     </row>
     <row r="13">
@@ -14426,28 +14426,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>4073.85632501361</v>
+        <v>4228.161646562942</v>
       </c>
       <c r="AB13" t="n">
-        <v>5574.029949740585</v>
+        <v>5785.157298154734</v>
       </c>
       <c r="AC13" t="n">
-        <v>5042.052354537302</v>
+        <v>5233.030005137892</v>
       </c>
       <c r="AD13" t="n">
-        <v>4073856.325013611</v>
+        <v>4228161.646562942</v>
       </c>
       <c r="AE13" t="n">
-        <v>5574029.949740585</v>
+        <v>5785157.298154734</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.74363062937179e-07</v>
+        <v>1.265004440301297e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.0375</v>
       </c>
       <c r="AH13" t="n">
-        <v>5042052.354537302</v>
+        <v>5233030.005137892</v>
       </c>
     </row>
     <row r="14">
@@ -14532,28 +14532,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>4085.45641006275</v>
+        <v>4239.761731612081</v>
       </c>
       <c r="AB14" t="n">
-        <v>5589.901697864452</v>
+        <v>5801.029046278602</v>
       </c>
       <c r="AC14" t="n">
-        <v>5056.409325296365</v>
+        <v>5247.386975896956</v>
       </c>
       <c r="AD14" t="n">
-        <v>4085456.41006275</v>
+        <v>4239761.731612082</v>
       </c>
       <c r="AE14" t="n">
-        <v>5589901.697864452</v>
+        <v>5801029.046278602</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.740689616714753e-07</v>
+        <v>1.264578942675901e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>36</v>
+        <v>35.04583333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>5056409.325296365</v>
+        <v>5247386.975896955</v>
       </c>
     </row>
   </sheetData>
@@ -14829,28 +14829,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8821.017698581027</v>
+        <v>9071.731762246482</v>
       </c>
       <c r="AB2" t="n">
-        <v>12069.30557103487</v>
+        <v>12412.34361366583</v>
       </c>
       <c r="AC2" t="n">
-        <v>10917.42798671161</v>
+        <v>11227.72696001077</v>
       </c>
       <c r="AD2" t="n">
-        <v>8821017.698581027</v>
+        <v>9071731.762246482</v>
       </c>
       <c r="AE2" t="n">
-        <v>12069305.57103487</v>
+        <v>12412343.61366583</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.623700381108715e-07</v>
+        <v>8.445024336252664e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.93333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>10917427.98671161</v>
+        <v>11227726.96001077</v>
       </c>
     </row>
     <row r="3">
@@ -14935,28 +14935,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4852.939733641542</v>
+        <v>5030.791603716757</v>
       </c>
       <c r="AB3" t="n">
-        <v>6640.00624015961</v>
+        <v>6883.351015067276</v>
       </c>
       <c r="AC3" t="n">
-        <v>6006.293363905815</v>
+        <v>6226.413655032819</v>
       </c>
       <c r="AD3" t="n">
-        <v>4852939.733641542</v>
+        <v>5030791.603716757</v>
       </c>
       <c r="AE3" t="n">
-        <v>6640006.240159609</v>
+        <v>6883351.015067276</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.831818097934428e-07</v>
+        <v>1.176092073758752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.31666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>6006293.363905814</v>
+        <v>6226413.655032819</v>
       </c>
     </row>
     <row r="4">
@@ -15041,28 +15041,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4009.982368185895</v>
+        <v>4171.64261979471</v>
       </c>
       <c r="AB4" t="n">
-        <v>5486.634784088804</v>
+        <v>5707.825472286951</v>
       </c>
       <c r="AC4" t="n">
-        <v>4962.998060835444</v>
+        <v>5163.078620195032</v>
       </c>
       <c r="AD4" t="n">
-        <v>4009982.368185895</v>
+        <v>4171642.61979471</v>
       </c>
       <c r="AE4" t="n">
-        <v>5486634.784088803</v>
+        <v>5707825.472286951</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.611340923038607e-07</v>
+        <v>1.293151817033541e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.48541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>4962998.060835444</v>
+        <v>5163078.620195032</v>
       </c>
     </row>
     <row r="5">
@@ -15147,28 +15147,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3572.735097166732</v>
+        <v>3726.47013174294</v>
       </c>
       <c r="AB5" t="n">
-        <v>4888.373777892172</v>
+        <v>5098.720834510407</v>
       </c>
       <c r="AC5" t="n">
-        <v>4421.834245405647</v>
+        <v>4612.106074164178</v>
       </c>
       <c r="AD5" t="n">
-        <v>3572735.097166732</v>
+        <v>3726470.13174294</v>
       </c>
       <c r="AE5" t="n">
-        <v>4888373.777892172</v>
+        <v>5098720.834510407</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.018601827582829e-07</v>
+        <v>1.354309560458737e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>4421834.245405647</v>
+        <v>4612106.074164177</v>
       </c>
     </row>
     <row r="6">
@@ -15253,28 +15253,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3320.022124619551</v>
+        <v>3473.671818341189</v>
       </c>
       <c r="AB6" t="n">
-        <v>4542.600739943603</v>
+        <v>4752.831029439639</v>
       </c>
       <c r="AC6" t="n">
-        <v>4109.061300903395</v>
+        <v>4299.227506629985</v>
       </c>
       <c r="AD6" t="n">
-        <v>3320022.124619551</v>
+        <v>3473671.818341189</v>
       </c>
       <c r="AE6" t="n">
-        <v>4542600.739943603</v>
+        <v>4752831.029439638</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.228595731488445e-07</v>
+        <v>1.385844021912354e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>36</v>
+        <v>35.91041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>4109061.300903395</v>
+        <v>4299227.506629986</v>
       </c>
     </row>
     <row r="7">
@@ -15359,28 +15359,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3304.589640344826</v>
+        <v>3458.239334066463</v>
       </c>
       <c r="AB7" t="n">
-        <v>4521.485334125767</v>
+        <v>4731.715623621802</v>
       </c>
       <c r="AC7" t="n">
-        <v>4089.961119781155</v>
+        <v>4280.127325507746</v>
       </c>
       <c r="AD7" t="n">
-        <v>3304589.640344826</v>
+        <v>3458239.334066463</v>
       </c>
       <c r="AE7" t="n">
-        <v>4521485.334125767</v>
+        <v>4731715.623621803</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.252458675114084e-07</v>
+        <v>1.389427483441174e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.82291666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>4089961.119781155</v>
+        <v>4280127.325507746</v>
       </c>
     </row>
     <row r="8">
@@ -15465,28 +15465,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3324.036969584108</v>
+        <v>3477.686663305745</v>
       </c>
       <c r="AB8" t="n">
-        <v>4548.094027946569</v>
+        <v>4758.324317442604</v>
       </c>
       <c r="AC8" t="n">
-        <v>4114.030317209236</v>
+        <v>4304.196522935827</v>
       </c>
       <c r="AD8" t="n">
-        <v>3324036.969584108</v>
+        <v>3477686.663305745</v>
       </c>
       <c r="AE8" t="n">
-        <v>4548094.027946569</v>
+        <v>4758324.317442604</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.252458675114084e-07</v>
+        <v>1.389427483441174e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.82291666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>4114030.317209236</v>
+        <v>4304196.522935826</v>
       </c>
     </row>
   </sheetData>
@@ -15762,28 +15762,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5934.980877842905</v>
+        <v>6146.896039065362</v>
       </c>
       <c r="AB2" t="n">
-        <v>8120.50266994222</v>
+        <v>8410.454342563893</v>
       </c>
       <c r="AC2" t="n">
-        <v>7345.493292319706</v>
+        <v>7607.772384256085</v>
       </c>
       <c r="AD2" t="n">
-        <v>5934980.877842905</v>
+        <v>6146896.039065362</v>
       </c>
       <c r="AE2" t="n">
-        <v>8120502.66994222</v>
+        <v>8410454.342563894</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.779408012459879e-07</v>
+        <v>1.039789499845307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.925</v>
       </c>
       <c r="AH2" t="n">
-        <v>7345493.292319706</v>
+        <v>7607772.384256085</v>
       </c>
     </row>
     <row r="3">
@@ -15868,28 +15868,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3667.365087290341</v>
+        <v>3832.216437414887</v>
       </c>
       <c r="AB3" t="n">
-        <v>5017.850705159826</v>
+        <v>5243.407595128527</v>
       </c>
       <c r="AC3" t="n">
-        <v>4538.954076456879</v>
+        <v>4742.984133418042</v>
       </c>
       <c r="AD3" t="n">
-        <v>3667365.087290342</v>
+        <v>3832216.437414887</v>
       </c>
       <c r="AE3" t="n">
-        <v>5017850.705159826</v>
+        <v>5243407.595128527</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.713304162677596e-07</v>
+        <v>1.336400193152438e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.61875</v>
       </c>
       <c r="AH3" t="n">
-        <v>4538954.076456879</v>
+        <v>4742984.133418042</v>
       </c>
     </row>
     <row r="4">
@@ -15974,28 +15974,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3069.210372188268</v>
+        <v>3218.430679183225</v>
       </c>
       <c r="AB4" t="n">
-        <v>4199.429035233515</v>
+        <v>4403.598842399356</v>
       </c>
       <c r="AC4" t="n">
-        <v>3798.641422046337</v>
+        <v>3983.325549370388</v>
       </c>
       <c r="AD4" t="n">
-        <v>3069210.372188268</v>
+        <v>3218430.679183225</v>
       </c>
       <c r="AE4" t="n">
-        <v>4199429.035233514</v>
+        <v>4403598.842399356</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.364564819948859e-07</v>
+        <v>1.436287084728876e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.86666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3798641.422046337</v>
+        <v>3983325.549370388</v>
       </c>
     </row>
     <row r="5">
@@ -16080,28 +16080,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3000.999338062551</v>
+        <v>3150.219645057508</v>
       </c>
       <c r="AB5" t="n">
-        <v>4106.09968908426</v>
+        <v>4310.269496250101</v>
       </c>
       <c r="AC5" t="n">
-        <v>3714.219297705011</v>
+        <v>3898.903425029062</v>
       </c>
       <c r="AD5" t="n">
-        <v>3000999.33806255</v>
+        <v>3150219.645057508</v>
       </c>
       <c r="AE5" t="n">
-        <v>4106099.68908426</v>
+        <v>4310269.496250101</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.449079561732152e-07</v>
+        <v>1.449249505773146e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.53541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>3714219.297705011</v>
+        <v>3898903.425029062</v>
       </c>
     </row>
   </sheetData>
@@ -29470,28 +29470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4339.816685474611</v>
+        <v>4516.101416200694</v>
       </c>
       <c r="AB2" t="n">
-        <v>5937.928648266353</v>
+        <v>6179.12919397923</v>
       </c>
       <c r="AC2" t="n">
-        <v>5371.221072010787</v>
+        <v>5589.401776167911</v>
       </c>
       <c r="AD2" t="n">
-        <v>4339816.685474612</v>
+        <v>4516101.416200694</v>
       </c>
       <c r="AE2" t="n">
-        <v>5937928.648266353</v>
+        <v>6179129.19397923</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.750111771787503e-07</v>
+        <v>1.210939676963022e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.08125</v>
       </c>
       <c r="AH2" t="n">
-        <v>5371221.072010787</v>
+        <v>5589401.776167911</v>
       </c>
     </row>
     <row r="3">
@@ -29576,28 +29576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2861.111288236303</v>
+        <v>3014.305808328988</v>
       </c>
       <c r="AB3" t="n">
-        <v>3914.698687886776</v>
+        <v>4124.306188742838</v>
       </c>
       <c r="AC3" t="n">
-        <v>3541.08533942883</v>
+        <v>3730.688194589157</v>
       </c>
       <c r="AD3" t="n">
-        <v>2861111.288236303</v>
+        <v>3014305.808328988</v>
       </c>
       <c r="AE3" t="n">
-        <v>3914698.687886776</v>
+        <v>4124306.188742837</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.421502830733049e-07</v>
+        <v>1.472091233043302e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.90833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3541085.33942883</v>
+        <v>3730688.194589157</v>
       </c>
     </row>
     <row r="4">
@@ -29682,28 +29682,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2787.152673691559</v>
+        <v>2932.679023202703</v>
       </c>
       <c r="AB4" t="n">
-        <v>3813.505248642855</v>
+        <v>4012.620820213443</v>
       </c>
       <c r="AC4" t="n">
-        <v>3449.549660000469</v>
+        <v>3629.661920880812</v>
       </c>
       <c r="AD4" t="n">
-        <v>2787152.673691559</v>
+        <v>2932679.023202703</v>
       </c>
       <c r="AE4" t="n">
-        <v>3813505.248642855</v>
+        <v>4012620.820213444</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.538071643049251e-07</v>
+        <v>1.490304880031465e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.44375</v>
       </c>
       <c r="AH4" t="n">
-        <v>3449549.66000047</v>
+        <v>3629661.920880812</v>
       </c>
     </row>
   </sheetData>
@@ -29979,28 +29979,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2413.522325292429</v>
+        <v>2566.478612434296</v>
       </c>
       <c r="AB2" t="n">
-        <v>3302.287722555507</v>
+        <v>3511.569262578163</v>
       </c>
       <c r="AC2" t="n">
-        <v>2987.122017104612</v>
+        <v>3176.430020675984</v>
       </c>
       <c r="AD2" t="n">
-        <v>2413522.325292429</v>
+        <v>2566478.612434296</v>
       </c>
       <c r="AE2" t="n">
-        <v>3302287.722555507</v>
+        <v>3511569.262578162</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.302586084956659e-07</v>
+        <v>1.516020251872134e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.20416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2987122.017104612</v>
+        <v>3176430.020675984</v>
       </c>
     </row>
     <row r="3">
@@ -30085,28 +30085,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2444.064878046451</v>
+        <v>2597.021165188318</v>
       </c>
       <c r="AB3" t="n">
-        <v>3344.077390675891</v>
+        <v>3553.358930698546</v>
       </c>
       <c r="AC3" t="n">
-        <v>3024.923337951753</v>
+        <v>3214.231341523125</v>
       </c>
       <c r="AD3" t="n">
-        <v>2444064.878046451</v>
+        <v>2597021.165188318</v>
       </c>
       <c r="AE3" t="n">
-        <v>3344077.390675891</v>
+        <v>3553358.930698547</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.308105815624156e-07</v>
+        <v>1.516919789205127e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.18125</v>
       </c>
       <c r="AH3" t="n">
-        <v>3024923.337951753</v>
+        <v>3214231.341523125</v>
       </c>
     </row>
   </sheetData>
@@ -30382,28 +30382,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>12695.91832304667</v>
+        <v>12986.23482956484</v>
       </c>
       <c r="AB2" t="n">
-        <v>17371.11555397967</v>
+        <v>17768.33940605819</v>
       </c>
       <c r="AC2" t="n">
-        <v>15713.240666021</v>
+        <v>16072.55403116431</v>
       </c>
       <c r="AD2" t="n">
-        <v>12695918.32304667</v>
+        <v>12986234.82956484</v>
       </c>
       <c r="AE2" t="n">
-        <v>17371115.55397968</v>
+        <v>17768339.40605819</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.676101243010886e-07</v>
+        <v>6.908382217578392e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.55208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>15713240.666021</v>
+        <v>16072554.03116431</v>
       </c>
     </row>
     <row r="3">
@@ -30488,28 +30488,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6068.396625045179</v>
+        <v>6259.061532546673</v>
       </c>
       <c r="AB3" t="n">
-        <v>8303.047981151742</v>
+        <v>8563.924119137366</v>
       </c>
       <c r="AC3" t="n">
-        <v>7510.616735231338</v>
+        <v>7746.595220749564</v>
       </c>
       <c r="AD3" t="n">
-        <v>6068396.625045178</v>
+        <v>6259061.532546673</v>
       </c>
       <c r="AE3" t="n">
-        <v>8303047.981151742</v>
+        <v>8563924.119137365</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.110320448816487e-07</v>
+        <v>1.05046509468344e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.08124999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>7510616.735231338</v>
+        <v>7746595.220749564</v>
       </c>
     </row>
     <row r="4">
@@ -30594,28 +30594,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4913.986481882171</v>
+        <v>5079.845143320576</v>
       </c>
       <c r="AB4" t="n">
-        <v>6723.533094294897</v>
+        <v>6950.468232042655</v>
       </c>
       <c r="AC4" t="n">
-        <v>6081.848532313102</v>
+        <v>6287.125299019673</v>
       </c>
       <c r="AD4" t="n">
-        <v>4913986.481882171</v>
+        <v>5079845.143320575</v>
       </c>
       <c r="AE4" t="n">
-        <v>6723533.094294896</v>
+        <v>6950468.232042655</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.979684450889915e-07</v>
+        <v>1.178903263585441e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.16875</v>
       </c>
       <c r="AH4" t="n">
-        <v>6081848.532313102</v>
+        <v>6287125.299019673</v>
       </c>
     </row>
     <row r="5">
@@ -30700,28 +30700,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4381.038262120089</v>
+        <v>4546.81149319537</v>
       </c>
       <c r="AB5" t="n">
-        <v>5994.329828000315</v>
+        <v>6221.148076156326</v>
       </c>
       <c r="AC5" t="n">
-        <v>5422.23940231049</v>
+        <v>5627.410435203895</v>
       </c>
       <c r="AD5" t="n">
-        <v>4381038.262120089</v>
+        <v>4546811.49319537</v>
       </c>
       <c r="AE5" t="n">
-        <v>5994329.828000315</v>
+        <v>6221148.076156327</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.435138866135464e-07</v>
+        <v>1.246191224638524e-06</v>
       </c>
       <c r="AG5" t="n">
         <v>38</v>
       </c>
       <c r="AH5" t="n">
-        <v>5422239.40231049</v>
+        <v>5627410.435203895</v>
       </c>
     </row>
     <row r="6">
@@ -30806,28 +30806,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4050.490021733953</v>
+        <v>4208.051398024584</v>
       </c>
       <c r="AB6" t="n">
-        <v>5542.05914274481</v>
+        <v>5757.641568903001</v>
       </c>
       <c r="AC6" t="n">
-        <v>5013.132796489896</v>
+        <v>5208.140338467375</v>
       </c>
       <c r="AD6" t="n">
-        <v>4050490.021733953</v>
+        <v>4208051.398024584</v>
       </c>
       <c r="AE6" t="n">
-        <v>5542059.142744809</v>
+        <v>5757641.568903001</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.718259178315129e-07</v>
+        <v>1.288018876103954e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.77083333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>5013132.796489895</v>
+        <v>5208140.338467375</v>
       </c>
     </row>
     <row r="7">
@@ -30912,28 +30912,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3792.805882047968</v>
+        <v>3950.281917484028</v>
       </c>
       <c r="AB7" t="n">
-        <v>5189.48433460451</v>
+        <v>5404.949993640504</v>
       </c>
       <c r="AC7" t="n">
-        <v>4694.207233196668</v>
+        <v>4889.109152142209</v>
       </c>
       <c r="AD7" t="n">
-        <v>3792805.882047968</v>
+        <v>3950281.917484028</v>
       </c>
       <c r="AE7" t="n">
-        <v>5189484.33460451</v>
+        <v>5404949.993640504</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.909057649566643e-07</v>
+        <v>1.31620707600457e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.97916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>4694207.233196668</v>
+        <v>4889109.152142209</v>
       </c>
     </row>
     <row r="8">
@@ -31018,28 +31018,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3611.510544170728</v>
+        <v>3760.689473476118</v>
       </c>
       <c r="AB8" t="n">
-        <v>4941.428055135033</v>
+        <v>5145.541247520554</v>
       </c>
       <c r="AC8" t="n">
-        <v>4469.825096890593</v>
+        <v>4654.458012669497</v>
       </c>
       <c r="AD8" t="n">
-        <v>3611510.544170728</v>
+        <v>3760689.473476117</v>
       </c>
       <c r="AE8" t="n">
-        <v>4941428.055135033</v>
+        <v>5145541.247520554</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.032153437470845e-07</v>
+        <v>1.334393011424322e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.48958333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>4469825.096890593</v>
+        <v>4654458.012669497</v>
       </c>
     </row>
     <row r="9">
@@ -31124,28 +31124,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3589.997097189676</v>
+        <v>3739.176026495065</v>
       </c>
       <c r="AB9" t="n">
-        <v>4911.992407869259</v>
+        <v>5116.10560025478</v>
       </c>
       <c r="AC9" t="n">
-        <v>4443.198746486675</v>
+        <v>4627.831662265579</v>
       </c>
       <c r="AD9" t="n">
-        <v>3589997.097189676</v>
+        <v>3739176.026495065</v>
       </c>
       <c r="AE9" t="n">
-        <v>4911992.407869259</v>
+        <v>5116105.600254781</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.055233897702884e-07</v>
+        <v>1.337802874315526e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.40416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>4443198.746486675</v>
+        <v>4627831.662265579</v>
       </c>
     </row>
     <row r="10">
@@ -31230,28 +31230,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3609.123542114163</v>
+        <v>3758.302471419552</v>
       </c>
       <c r="AB10" t="n">
-        <v>4938.162053614142</v>
+        <v>5142.275245999664</v>
       </c>
       <c r="AC10" t="n">
-        <v>4466.870797970993</v>
+        <v>4651.503713749897</v>
       </c>
       <c r="AD10" t="n">
-        <v>3609123.542114163</v>
+        <v>3758302.471419552</v>
       </c>
       <c r="AE10" t="n">
-        <v>4938162.053614141</v>
+        <v>5142275.245999664</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.053695200354081e-07</v>
+        <v>1.337575550122779e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.40416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>4466870.797970993</v>
+        <v>4651503.713749897</v>
       </c>
     </row>
   </sheetData>
@@ -31527,28 +31527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>20683.10630487019</v>
+        <v>21058.21086815214</v>
       </c>
       <c r="AB2" t="n">
-        <v>28299.53852057617</v>
+        <v>28812.77313250397</v>
       </c>
       <c r="AC2" t="n">
-        <v>25598.67028282296</v>
+        <v>26062.92250371765</v>
       </c>
       <c r="AD2" t="n">
-        <v>20683106.30487019</v>
+        <v>21058210.86815214</v>
       </c>
       <c r="AE2" t="n">
-        <v>28299538.52057618</v>
+        <v>28812773.13250397</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.610466370703569e-07</v>
+        <v>5.243007395505541e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>86</v>
+        <v>85.57291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>25598670.28282296</v>
+        <v>26062922.50371765</v>
       </c>
     </row>
     <row r="3">
@@ -31633,28 +31633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>7873.721313030565</v>
+        <v>8086.77529184764</v>
       </c>
       <c r="AB3" t="n">
-        <v>10773.17286455764</v>
+        <v>11064.68271765336</v>
       </c>
       <c r="AC3" t="n">
-        <v>9744.996366606931</v>
+        <v>10008.68492845983</v>
       </c>
       <c r="AD3" t="n">
-        <v>7873721.313030565</v>
+        <v>8086775.29184764</v>
       </c>
       <c r="AE3" t="n">
-        <v>10773172.86455764</v>
+        <v>11064682.71765336</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.283842496526376e-07</v>
+        <v>9.12520137254722e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.15833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>9744996.36660693</v>
+        <v>10008684.92845983</v>
       </c>
     </row>
     <row r="4">
@@ -31739,28 +31739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>6136.059358202099</v>
+        <v>6323.611639843075</v>
       </c>
       <c r="AB4" t="n">
-        <v>8395.627117726159</v>
+        <v>8652.244423690054</v>
       </c>
       <c r="AC4" t="n">
-        <v>7594.360248946723</v>
+        <v>7826.486359394066</v>
       </c>
       <c r="AD4" t="n">
-        <v>6136059.358202099</v>
+        <v>6323611.639843075</v>
       </c>
       <c r="AE4" t="n">
-        <v>8395627.117726158</v>
+        <v>8652244.423690055</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.262449397825907e-07</v>
+        <v>1.054630399309492e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.53333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>7594360.248946723</v>
+        <v>7826486.359394066</v>
       </c>
     </row>
     <row r="5">
@@ -31845,28 +31845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>5419.215439534622</v>
+        <v>5598.153397480319</v>
       </c>
       <c r="AB5" t="n">
-        <v>7414.809643283543</v>
+        <v>7659.64045153042</v>
       </c>
       <c r="AC5" t="n">
-        <v>6707.150617678976</v>
+        <v>6928.615117208961</v>
       </c>
       <c r="AD5" t="n">
-        <v>5419215.439534622</v>
+        <v>5598153.397480318</v>
       </c>
       <c r="AE5" t="n">
-        <v>7414809.643283543</v>
+        <v>7659640.45153042</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.778442127602021e-07</v>
+        <v>1.129561264756553e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.71458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>6707150.617678977</v>
+        <v>6928615.117208961</v>
       </c>
     </row>
     <row r="6">
@@ -31951,28 +31951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>5007.096892042453</v>
+        <v>5169.06231466986</v>
       </c>
       <c r="AB6" t="n">
-        <v>6850.930865217588</v>
+        <v>7072.539101866567</v>
       </c>
       <c r="AC6" t="n">
-        <v>6197.087638782821</v>
+        <v>6397.545896355126</v>
       </c>
       <c r="AD6" t="n">
-        <v>5007096.892042453</v>
+        <v>5169062.31466986</v>
       </c>
       <c r="AE6" t="n">
-        <v>6850930.865217588</v>
+        <v>7072539.101866567</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.103161690305957e-07</v>
+        <v>1.176716033529272e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.12291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>6197087.638782822</v>
+        <v>6397545.896355126</v>
       </c>
     </row>
     <row r="7">
@@ -32057,28 +32057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>4726.030346185496</v>
+        <v>4887.910427958329</v>
       </c>
       <c r="AB7" t="n">
-        <v>6466.363217395205</v>
+        <v>6687.854686921985</v>
       </c>
       <c r="AC7" t="n">
-        <v>5849.222587524539</v>
+        <v>6049.575222064905</v>
       </c>
       <c r="AD7" t="n">
-        <v>4726030.346185495</v>
+        <v>4887910.427958329</v>
       </c>
       <c r="AE7" t="n">
-        <v>6466363.217395205</v>
+        <v>6687854.686921986</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.319641398775247e-07</v>
+        <v>1.208152546044419e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.12916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>5849222.587524539</v>
+        <v>6049575.222064905</v>
       </c>
     </row>
     <row r="8">
@@ -32163,28 +32163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>4498.772675135853</v>
+        <v>4660.567416054115</v>
       </c>
       <c r="AB8" t="n">
-        <v>6155.419245964213</v>
+        <v>6376.793948368795</v>
       </c>
       <c r="AC8" t="n">
-        <v>5567.954672314328</v>
+        <v>5768.201683822754</v>
       </c>
       <c r="AD8" t="n">
-        <v>4498772.675135853</v>
+        <v>4660567.416054115</v>
       </c>
       <c r="AE8" t="n">
-        <v>6155419.245964212</v>
+        <v>6376793.948368795</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.484225286721077e-07</v>
+        <v>1.232052908299084e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.40833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>5567954.672314327</v>
+        <v>5768201.683822754</v>
       </c>
     </row>
     <row r="9">
@@ -32269,28 +32269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>4312.752624079447</v>
+        <v>4474.63261634373</v>
       </c>
       <c r="AB9" t="n">
-        <v>5900.898405483366</v>
+        <v>6122.389752540597</v>
       </c>
       <c r="AC9" t="n">
-        <v>5337.724943626739</v>
+        <v>5538.077467385877</v>
       </c>
       <c r="AD9" t="n">
-        <v>4312752.624079447</v>
+        <v>4474632.61634373</v>
       </c>
       <c r="AE9" t="n">
-        <v>5900898.405483366</v>
+        <v>6122389.752540598</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.604327042789656e-07</v>
+        <v>1.249493713187624e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.89791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>5337724.943626739</v>
+        <v>5538077.467385877</v>
       </c>
     </row>
     <row r="10">
@@ -32375,28 +32375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>4148.388800554589</v>
+        <v>4301.739899486717</v>
       </c>
       <c r="AB10" t="n">
-        <v>5676.008570916513</v>
+        <v>5885.830309848472</v>
       </c>
       <c r="AC10" t="n">
-        <v>5134.298279236092</v>
+        <v>5324.094925891034</v>
       </c>
       <c r="AD10" t="n">
-        <v>4148388.800554588</v>
+        <v>4301739.899486717</v>
       </c>
       <c r="AE10" t="n">
-        <v>5676008.570916513</v>
+        <v>5885830.309848472</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.70367047064885e-07</v>
+        <v>1.263920057971972e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.48958333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>5134298.279236091</v>
+        <v>5324094.925891034</v>
       </c>
     </row>
     <row r="11">
@@ -32481,28 +32481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>4017.352297293225</v>
+        <v>4170.703396225354</v>
       </c>
       <c r="AB11" t="n">
-        <v>5496.718646231778</v>
+        <v>5706.540385163737</v>
       </c>
       <c r="AC11" t="n">
-        <v>4972.119533328284</v>
+        <v>5161.916179983226</v>
       </c>
       <c r="AD11" t="n">
-        <v>4017352.297293225</v>
+        <v>4170703.396225353</v>
       </c>
       <c r="AE11" t="n">
-        <v>5496718.646231778</v>
+        <v>5706540.385163737</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.77187640619397e-07</v>
+        <v>1.273824712600032e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.2125</v>
       </c>
       <c r="AH11" t="n">
-        <v>4972119.533328284</v>
+        <v>5161916.179983227</v>
       </c>
     </row>
     <row r="12">
@@ -32587,28 +32587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3967.4014039602</v>
+        <v>4120.752502892328</v>
       </c>
       <c r="AB12" t="n">
-        <v>5428.373630295645</v>
+        <v>5638.195369227601</v>
       </c>
       <c r="AC12" t="n">
-        <v>4910.297269790264</v>
+        <v>5100.093916445207</v>
       </c>
       <c r="AD12" t="n">
-        <v>3967401.4039602</v>
+        <v>4120752.502892328</v>
       </c>
       <c r="AE12" t="n">
-        <v>5428373.630295645</v>
+        <v>5638195.369227601</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.801531160778804e-07</v>
+        <v>1.278131084177449e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.09583333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>4910297.269790264</v>
+        <v>5100093.916445208</v>
       </c>
     </row>
     <row r="13">
@@ -32693,28 +32693,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3985.516568568511</v>
+        <v>4138.867667500638</v>
       </c>
       <c r="AB13" t="n">
-        <v>5453.159597697394</v>
+        <v>5662.981336629352</v>
       </c>
       <c r="AC13" t="n">
-        <v>4932.717699250514</v>
+        <v>5122.514345905457</v>
       </c>
       <c r="AD13" t="n">
-        <v>3985516.568568511</v>
+        <v>4138867.667500638</v>
       </c>
       <c r="AE13" t="n">
-        <v>5453159.597697394</v>
+        <v>5662981.336629352</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.800048423049562e-07</v>
+        <v>1.277915765598578e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.10208333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>4932717.699250514</v>
+        <v>5122514.345905457</v>
       </c>
     </row>
   </sheetData>
@@ -32990,28 +32990,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2290.366754259528</v>
+        <v>2453.856433374941</v>
       </c>
       <c r="AB2" t="n">
-        <v>3133.780837027946</v>
+        <v>3357.474628649266</v>
       </c>
       <c r="AC2" t="n">
-        <v>2834.697192230909</v>
+        <v>3037.04196233609</v>
       </c>
       <c r="AD2" t="n">
-        <v>2290366.754259528</v>
+        <v>2453856.433374941</v>
       </c>
       <c r="AE2" t="n">
-        <v>3133780.837027946</v>
+        <v>3357474.628649266</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.771684079993637e-07</v>
+        <v>1.462187475281695e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.24791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2834697.192230909</v>
+        <v>3037041.96233609</v>
       </c>
     </row>
   </sheetData>
@@ -33287,28 +33287,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6820.165837180755</v>
+        <v>7034.443851327193</v>
       </c>
       <c r="AB2" t="n">
-        <v>9331.651782912617</v>
+        <v>9624.836415146596</v>
       </c>
       <c r="AC2" t="n">
-        <v>8441.05203380662</v>
+        <v>8706.255536227391</v>
       </c>
       <c r="AD2" t="n">
-        <v>6820165.837180755</v>
+        <v>7034443.851327193</v>
       </c>
       <c r="AE2" t="n">
-        <v>9331651.782912618</v>
+        <v>9624836.415146595</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.363791049429565e-07</v>
+        <v>9.685095737381047e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.45416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>8441052.03380662</v>
+        <v>8706255.53622739</v>
       </c>
     </row>
     <row r="3">
@@ -33393,28 +33393,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4069.312025429105</v>
+        <v>4236.020045066667</v>
       </c>
       <c r="AB3" t="n">
-        <v>5567.812238568717</v>
+        <v>5795.909505675602</v>
       </c>
       <c r="AC3" t="n">
-        <v>5036.428052993065</v>
+        <v>5242.756037063786</v>
       </c>
       <c r="AD3" t="n">
-        <v>4069312.025429105</v>
+        <v>4236020.045066667</v>
       </c>
       <c r="AE3" t="n">
-        <v>5567812.238568717</v>
+        <v>5795909.505675603</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.391973878116125e-07</v>
+        <v>1.277180061442166e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.53958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>5036428.052993065</v>
+        <v>5242756.037063786</v>
       </c>
     </row>
     <row r="4">
@@ -33499,28 +33499,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3380.978687153097</v>
+        <v>3531.716373493007</v>
       </c>
       <c r="AB4" t="n">
-        <v>4626.004198015748</v>
+        <v>4832.250150543407</v>
       </c>
       <c r="AC4" t="n">
-        <v>4184.504849994621</v>
+        <v>4371.066978281044</v>
       </c>
       <c r="AD4" t="n">
-        <v>3380978.687153097</v>
+        <v>3531716.373493007</v>
       </c>
       <c r="AE4" t="n">
-        <v>4626004.198015749</v>
+        <v>4832250.150543407</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.107226759730224e-07</v>
+        <v>1.386034871115579e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.35416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>4184504.84999462</v>
+        <v>4371066.978281043</v>
       </c>
     </row>
     <row r="5">
@@ -33605,28 +33605,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3104.201755841822</v>
+        <v>3247.082242060488</v>
       </c>
       <c r="AB5" t="n">
-        <v>4247.305790059207</v>
+        <v>4442.801174745774</v>
       </c>
       <c r="AC5" t="n">
-        <v>3841.948886586912</v>
+        <v>4018.786466138481</v>
       </c>
       <c r="AD5" t="n">
-        <v>3104201.755841822</v>
+        <v>3247082.242060488</v>
       </c>
       <c r="AE5" t="n">
-        <v>4247305.790059207</v>
+        <v>4442801.174745774</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.378304335867077e-07</v>
+        <v>1.427290346927877e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.27708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3841948.886586912</v>
+        <v>4018786.466138481</v>
       </c>
     </row>
     <row r="6">
@@ -33711,28 +33711,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3113.31767411156</v>
+        <v>3256.198160330226</v>
       </c>
       <c r="AB6" t="n">
-        <v>4259.778591601794</v>
+        <v>4455.27397628836</v>
       </c>
       <c r="AC6" t="n">
-        <v>3853.231301455961</v>
+        <v>4030.06888100753</v>
       </c>
       <c r="AD6" t="n">
-        <v>3113317.67411156</v>
+        <v>3256198.160330226</v>
       </c>
       <c r="AE6" t="n">
-        <v>4259778.591601794</v>
+        <v>4455273.976288361</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.38810232054672e-07</v>
+        <v>1.428781508704225e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.24166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>3853231.301455962</v>
+        <v>4030068.88100753</v>
       </c>
     </row>
   </sheetData>
@@ -34008,28 +34008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9970.404736658809</v>
+        <v>10231.55313184666</v>
       </c>
       <c r="AB2" t="n">
-        <v>13641.94762391036</v>
+        <v>13999.26237926048</v>
       </c>
       <c r="AC2" t="n">
-        <v>12339.97928927758</v>
+        <v>12663.19242587148</v>
       </c>
       <c r="AD2" t="n">
-        <v>9970404.73665881</v>
+        <v>10231553.13184666</v>
       </c>
       <c r="AE2" t="n">
-        <v>13641947.62391036</v>
+        <v>13999262.37926048</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.290542230608432e-07</v>
+        <v>7.898307073246909e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.90416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>12339979.28927758</v>
+        <v>12663192.42587148</v>
       </c>
     </row>
     <row r="3">
@@ -34114,28 +34114,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5253.848518859819</v>
+        <v>5433.334792025914</v>
       </c>
       <c r="AB3" t="n">
-        <v>7188.547326942613</v>
+        <v>7434.128364263999</v>
       </c>
       <c r="AC3" t="n">
-        <v>6502.482459248478</v>
+        <v>6724.625587043052</v>
       </c>
       <c r="AD3" t="n">
-        <v>5253848.518859819</v>
+        <v>5433334.792025913</v>
       </c>
       <c r="AE3" t="n">
-        <v>7188547.326942613</v>
+        <v>7434128.364263999</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.574987360199533e-07</v>
+        <v>1.130877963711845e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.2375</v>
       </c>
       <c r="AH3" t="n">
-        <v>6502482.459248479</v>
+        <v>6724625.587043053</v>
       </c>
     </row>
     <row r="4">
@@ -34220,28 +34220,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4313.308961678339</v>
+        <v>4476.462792538372</v>
       </c>
       <c r="AB4" t="n">
-        <v>5901.659611130054</v>
+        <v>6124.893880351781</v>
       </c>
       <c r="AC4" t="n">
-        <v>5338.413500874865</v>
+        <v>5540.342604753328</v>
       </c>
       <c r="AD4" t="n">
-        <v>4313308.961678339</v>
+        <v>4476462.792538372</v>
       </c>
       <c r="AE4" t="n">
-        <v>5901659.611130054</v>
+        <v>6124893.880351781</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.390972922661873e-07</v>
+        <v>1.252697320948551e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.0375</v>
       </c>
       <c r="AH4" t="n">
-        <v>5338413.500874866</v>
+        <v>5540342.604753328</v>
       </c>
     </row>
     <row r="5">
@@ -34326,28 +34326,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3850.494838380056</v>
+        <v>4005.482448087056</v>
       </c>
       <c r="AB5" t="n">
-        <v>5268.416909715208</v>
+        <v>5480.477794887107</v>
       </c>
       <c r="AC5" t="n">
-        <v>4765.606594121364</v>
+        <v>4957.428686041771</v>
       </c>
       <c r="AD5" t="n">
-        <v>3850494.838380056</v>
+        <v>4005482.448087056</v>
       </c>
       <c r="AE5" t="n">
-        <v>5268416.909715208</v>
+        <v>5480477.794887107</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.815474082324362e-07</v>
+        <v>1.316071553037011e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.15625</v>
       </c>
       <c r="AH5" t="n">
-        <v>4765606.594121364</v>
+        <v>4957428.686041771</v>
       </c>
     </row>
     <row r="6">
@@ -34432,28 +34432,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3541.84764300698</v>
+        <v>3688.754372415521</v>
       </c>
       <c r="AB6" t="n">
-        <v>4846.112200452491</v>
+        <v>5047.11646869676</v>
       </c>
       <c r="AC6" t="n">
-        <v>4383.606053602313</v>
+        <v>4565.426756596604</v>
       </c>
       <c r="AD6" t="n">
-        <v>3541847.643006979</v>
+        <v>3688754.372415521</v>
       </c>
       <c r="AE6" t="n">
-        <v>4846112.200452492</v>
+        <v>5047116.468696759</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.073319231156392e-07</v>
+        <v>1.354565531046297e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.1</v>
       </c>
       <c r="AH6" t="n">
-        <v>4383606.053602314</v>
+        <v>4565426.756596603</v>
       </c>
     </row>
     <row r="7">
@@ -34538,28 +34538,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3395.31605859914</v>
+        <v>3550.30357879759</v>
       </c>
       <c r="AB7" t="n">
-        <v>4645.621222148413</v>
+        <v>4857.681984850762</v>
       </c>
       <c r="AC7" t="n">
-        <v>4202.249652876728</v>
+        <v>4394.071634015909</v>
       </c>
       <c r="AD7" t="n">
-        <v>3395316.05859914</v>
+        <v>3550303.57879759</v>
       </c>
       <c r="AE7" t="n">
-        <v>4645621.222148413</v>
+        <v>4857681.984850762</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.181802860847917e-07</v>
+        <v>1.37076116813557e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>36</v>
+        <v>35.675</v>
       </c>
       <c r="AH7" t="n">
-        <v>4202249.652876728</v>
+        <v>4394071.634015908</v>
       </c>
     </row>
     <row r="8">
@@ -34644,28 +34644,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3405.393793904401</v>
+        <v>3560.381314102851</v>
       </c>
       <c r="AB8" t="n">
-        <v>4659.410024191376</v>
+        <v>4871.470786893726</v>
       </c>
       <c r="AC8" t="n">
-        <v>4214.722471005414</v>
+        <v>4406.544452144595</v>
       </c>
       <c r="AD8" t="n">
-        <v>3405393.793904401</v>
+        <v>3560381.314102851</v>
       </c>
       <c r="AE8" t="n">
-        <v>4659410.024191376</v>
+        <v>4871470.786893725</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.188091766916992e-07</v>
+        <v>1.371700045647992e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.65208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>4214722.471005415</v>
+        <v>4406544.452144595</v>
       </c>
     </row>
   </sheetData>
